--- a/output/batch-size.xlsx
+++ b/output/batch-size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278056C-EE41-3644-B7FD-B1D3CC94CF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0E5E4-A70A-0D49-B936-98481FB95933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35100" yWindow="500" windowWidth="24240" windowHeight="13080" activeTab="1" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
+    <workbookView xWindow="-35100" yWindow="500" windowWidth="29840" windowHeight="18400" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>epoch</t>
   </si>
@@ -111,6 +111,4235 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>batch 8 train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]100 files'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>26.365852355956999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.825202941894499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.808940887451101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.3333320617675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.398372650146399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.8333320617675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.597560882568303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.0406494140625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.495933532714801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.5203247070312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.3943061828613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.170730590820298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.5406494140625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.829265594482401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.979671478271399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.264225006103501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.8943061828613</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.158535003662102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.130077362060497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.829265594482401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.1016235351562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.3333320617675</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.654468536376903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.272354125976506</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.8130073547363</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.715446472167898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.081298828125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.081298828125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.605690002441399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.817070007324205</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.182922363281193</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.882110595703097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64.6219482421875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.504058837890597</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.097557067871094</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66.304878234863196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.556907653808594</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66.439018249511705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.329269409179602</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.109756469726506</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.670730590820298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.227638244628906</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>65.609756469726506</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.369918823242102</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.276420593261705</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68.678855895996094</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>68.020324707031193</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.890243530273395</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68.747962951660099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.670730590820298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68.865852355957003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68.943084716796804</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70.365852355957003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68.695121765136705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.215446472167898</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68.869918823242102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70.235771179199205</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69.329269409179602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71.097557067871094</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.898368835449205</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71.247962951660099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67.804878234863196</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.601623535156193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70.097557067871094</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.272354125976506</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.410568237304602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.918693542480398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.666664123535099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71.406501770019503</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.890243530273395</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70.382110595703097</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72.650405883789006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71.170730590820298</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72.223571777343693</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73.772354125976506</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73.971542358398395</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>73.699180603027301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73.768287658691406</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72.654472351074205</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72.784553527832003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73.849594116210895</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>73.605690002441406</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>73.788612365722599</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>74.471542358398395</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>74.052841186523395</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>74.174797058105398</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>72.906501770019503</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74.544715881347599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75.642272949218693</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74.406501770019503</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>74.390243530273395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>75.345527648925696</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>74.898368835449205</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>75.353652954101506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>76.199180603027301</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>75.768287658691406</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>74.654472351074205</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>73.487800598144503</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>75.410568237304602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>batch 8 val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]100 files'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>27.059999465942301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2799987792968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.359998703002901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.359998703002901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.559999465942301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.379999160766602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.420000076293899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.399997711181598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.519998550415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.219997406005803</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39.899997711181598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>34.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39.399997711181598</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.219997406005803</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.579998016357401</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.399997711181598</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.219997406005803</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>37.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.399997711181598</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>39.139999389648402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>batch 20 train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]100 files'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.232322692871001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.101009368896399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.838384628295898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.222221374511697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.383838653564403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.202018737792898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.070705413818303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.494949340820298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.262626647949197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.555557250976499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.3131294250488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.030303955078097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.595958709716797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.868686676025298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.323230743408203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.606060028076101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.010101318359297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.989898681640597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.030303955078097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.101009368896399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.191917419433501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.272727966308501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.454544067382798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.686866760253899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.181819915771399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.171718597412102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.282829284667898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.484848022460902</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.252525329589801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.030303955078097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.646465301513601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.656566619872997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.090908050537102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57.757575988769503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59.717170715332003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.575756072997997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61.010101318359297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.737373352050703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.888889312744098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.696968078613203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.202018737792898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.727272033691399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62.656566619872997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63.808082580566399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.202018737792898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62.303031921386697</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64.565658569335895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.767677307128906</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65.070709228515597</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64.565658569335895</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.292930603027301</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64.868690490722599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65.424240112304602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67.747474670410099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66.939392089843693</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.696968078613196</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.202018737792898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66.444442749023395</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67.898986816406193</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.515151977539006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69.0404052734375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.0404052734375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66.535354614257798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.767677307128906</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.858589172363196</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69.242424011230398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.141410827636705</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68.939392089843693</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>68.353538513183594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.343437194824205</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>69.646461486816406</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.949493408203097</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.020202636718693</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>68.262626647949205</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70.909088134765597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69.424240112304602</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.444442749023395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>69.696968078613196</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>69.595962524414006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>68.9595947265625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69.262626647949205</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.161613464355398</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>68.868690490722599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71.363639831542898</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>69.393936157226506</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68.212120056152301</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>69.545455932617102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>70.686866760253906</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70.606063842773395</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.717170715332003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>68.909088134765597</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>70.252525329589801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71.616165161132798</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>70.252525329589801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71.515151977539006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67.757575988769503</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>70.373733520507798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>batch 20 val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]100 files'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.4500007629394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.550001144409102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.800001144409102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.800001144409102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.300001144409102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.550001144409102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37.350002288818303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>39.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35.350002288818303</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.350002288818303</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>39.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>39.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25.600000381469702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>batch 40 train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'40'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.639999389648398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.5399990081787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.2799987792968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0599975585937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.380001068115199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.0599975585937</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.079998016357401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.079998016357401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.03999710083</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.0599975585937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.079998016357401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.53999710083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.899997711181598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54.219997406005803</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55.879997253417898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53.579998016357401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.579998016357401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.579998016357401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.53999710083</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.899997711181598</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>63.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>61.859996795654297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>63.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>64.279998779296804</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>63.0599975585937</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.5599975585937</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64.819999694824205</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64.900001525878906</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>64.979995727539006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>65.760002136230398</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>66.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>68.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>66.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>67.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>67.339996337890597</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>66.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>67.599998474121094</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68.819999694824205</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>66.760002136230398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>66.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>68.699996948242102</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>67.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>68.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68.319999694824205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>batch 40 val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]500files'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.341463088989201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.085365295410099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.5609741210937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.9146327972412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.573169708251903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.182926177978501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.487804412841797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.390243530273402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.158535003662102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.719509124755803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.304878234863203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.073169708251903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.280487060546797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.280487060546797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.756095886230398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.158535003662102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.012191772460902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.926826477050703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.487804412841797</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.4146308898925</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.256095886230398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.499996185302699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.926826477050703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.9146308898925</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.012191772460902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.524387359619098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.085365295410099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.804874420166001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.6219482421875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.829265594482401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.378047943115199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.292678833007798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60.1219482421875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.939022064208899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.073169708251903</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.865852355957003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.012191772460902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.158531188964801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.390243530273395</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.1219482421875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.463409423828097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67.048774719238196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.829269409179602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.512191772460895</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68.634140014648395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>68.951217651367102</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70.158531188964801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.353652954101506</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.609756469726506</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71.036582946777301</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.426826477050696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72.536582946777301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.817070007324205</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73.195121765136705</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73.1219482421875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>73.719512939453097</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>73.134140014648395</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74.536582946777301</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>74.951217651367102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>74.804878234863196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>75.329261779785099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73.804878234863196</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>76.390243530273395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>74.353652954101506</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75.707313537597599</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>75.695121765136705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>77.439018249511705</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76.219512939453097</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.804878234863196</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>76.463409423828097</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.097557067871094</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77.073165893554602</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.743896484375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.426826477050696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.743896484375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.451217651367102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>76.182922363281193</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77.548774719238196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>77.256095886230398</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>78.012191772460895</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>77.548774719238196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78.731704711914006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78.341461181640597</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77.975608825683594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>77.658531188964801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>77.731704711914006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78.756095886230398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>78.231704711914006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79.195121765136705</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.060974121093693</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>77.219512939453097</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.865852355957003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.756095886230398</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79.634140014648395</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.768287658691406</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>79.036582946777301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-12BF-5144-A1AA-53FCB533EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1642646719"/>
+        <c:axId val="1642413535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1642646719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642413535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1642413535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642646719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFD9198-E621-7E47-AC13-BE2EF9C4B705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2028,1273 +6257,1353 @@
       </sheetData>
       <sheetData sheetId="2">
         <row r="1">
-          <cell r="B1">
-            <v>24.7073154449462</v>
-          </cell>
-          <cell r="C1">
-            <v>25.365270614623999</v>
+          <cell r="B1" t="str">
+            <v>train_acc</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>val_acc</v>
           </cell>
         </row>
         <row r="2">
           <cell r="B2">
-            <v>25.6463413238525</v>
+            <v>24.341463088989201</v>
           </cell>
           <cell r="C2">
-            <v>23.431138992309499</v>
+            <v>23.845237731933501</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>29.262193679809499</v>
+            <v>25.085365295410099</v>
           </cell>
           <cell r="C3">
-            <v>22.251497268676701</v>
+            <v>24.059524536132798</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>31.493902206420898</v>
+            <v>26.5609741210937</v>
           </cell>
           <cell r="C4">
-            <v>22.4071865081787</v>
+            <v>24.726190567016602</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>32.445121765136697</v>
+            <v>29.9146327972412</v>
           </cell>
           <cell r="C5">
-            <v>23.3772468566894</v>
+            <v>25.7023811340332</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>33.396339416503899</v>
+            <v>33.573169708251903</v>
           </cell>
           <cell r="C6">
-            <v>24.113773345947202</v>
+            <v>23.059524536132798</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>34.182926177978501</v>
+            <v>36.182926177978501</v>
           </cell>
           <cell r="C7">
-            <v>22.820360183715799</v>
+            <v>23.261905670166001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>34.932926177978501</v>
+            <v>37.487804412841797</v>
           </cell>
           <cell r="C8">
-            <v>23.347307205200099</v>
+            <v>22.7857151031494</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>35.689022064208899</v>
+            <v>37.390243530273402</v>
           </cell>
           <cell r="C9">
-            <v>23.1377258300781</v>
+            <v>22.892858505248999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>37.5609741210937</v>
+            <v>41.158535003662102</v>
           </cell>
           <cell r="C10">
-            <v>22.712575912475501</v>
+            <v>22.964286804199201</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>37.670730590820298</v>
+            <v>41.719509124755803</v>
           </cell>
           <cell r="C11">
-            <v>22.497007369995099</v>
+            <v>23.321428298950099</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>37.426826477050703</v>
+            <v>41.304878234863203</v>
           </cell>
           <cell r="C12">
-            <v>23.0718574523925</v>
+            <v>23.214286804199201</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>37.451217651367102</v>
+            <v>42.073169708251903</v>
           </cell>
           <cell r="C13">
-            <v>23.089820861816399</v>
+            <v>23.595237731933501</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>38.012195587158203</v>
+            <v>44.280487060546797</v>
           </cell>
           <cell r="C14">
-            <v>23.389223098754801</v>
+            <v>23.5</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>41.1646308898925</v>
+            <v>44.280487060546797</v>
           </cell>
           <cell r="C15">
-            <v>22.8682651519775</v>
+            <v>24.5</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>41.1219482421875</v>
+            <v>45.756095886230398</v>
           </cell>
           <cell r="C16">
-            <v>23.706586837768501</v>
+            <v>24.190477371215799</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>43.140243530273402</v>
+            <v>46.158535003662102</v>
           </cell>
           <cell r="C17">
-            <v>24.335330963134702</v>
+            <v>24.976190567016602</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>43.3719482421875</v>
+            <v>47.012191772460902</v>
           </cell>
           <cell r="C18">
-            <v>23.3053894042968</v>
+            <v>27.1190490722656</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>43.890243530273402</v>
+            <v>47.926826477050703</v>
           </cell>
           <cell r="C19">
-            <v>24.652694702148398</v>
+            <v>26.392858505248999</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>45.939022064208899</v>
+            <v>48.487804412841797</v>
           </cell>
           <cell r="C20">
-            <v>25.1017971038818</v>
+            <v>28.25</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>45.463413238525298</v>
+            <v>50.4146308898925</v>
           </cell>
           <cell r="C21">
-            <v>23.6287441253662</v>
+            <v>28.226190567016602</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>47.756095886230398</v>
+            <v>52.256095886230398</v>
           </cell>
           <cell r="C22">
-            <v>25.688623428344702</v>
+            <v>28.166667938232401</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>48.774387359619098</v>
+            <v>52.499996185302699</v>
           </cell>
           <cell r="C23">
-            <v>25.125749588012599</v>
+            <v>29.964286804199201</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>48.3109741210937</v>
+            <v>53.926826477050703</v>
           </cell>
           <cell r="C24">
-            <v>25.1017971038818</v>
+            <v>29.773809432983398</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>50.939022064208899</v>
+            <v>53.9146308898925</v>
           </cell>
           <cell r="C25">
-            <v>25.131736755371001</v>
+            <v>29.0833339691162</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>51.829265594482401</v>
+            <v>55.012191772460902</v>
           </cell>
           <cell r="C26">
-            <v>24.898204803466701</v>
+            <v>30.0833339691162</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>50.682926177978501</v>
+            <v>55.524387359619098</v>
           </cell>
           <cell r="C27">
-            <v>25.215570449829102</v>
+            <v>30.107143402099599</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>51.865852355957003</v>
+            <v>57.085365295410099</v>
           </cell>
           <cell r="C28">
-            <v>24.7485046386718</v>
+            <v>30.988096237182599</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>53.390243530273402</v>
+            <v>56.804874420166001</v>
           </cell>
           <cell r="C29">
-            <v>24.754491806030199</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>55.262191772460902</v>
+            <v>57.6219482421875</v>
           </cell>
           <cell r="C30">
-            <v>27.353294372558501</v>
+            <v>31.071428298950099</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>55.670730590820298</v>
+            <v>57.829265594482401</v>
           </cell>
           <cell r="C31">
-            <v>24.844312667846602</v>
+            <v>31.261905670166001</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>55.609752655029297</v>
+            <v>59.378047943115199</v>
           </cell>
           <cell r="C32">
-            <v>24.083833694458001</v>
+            <v>31.773809432983398</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>55.6646308898925</v>
+            <v>59.292678833007798</v>
           </cell>
           <cell r="C33">
-            <v>26.449102401733398</v>
+            <v>30.607143402099599</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>57.737804412841797</v>
+            <v>60.1219482421875</v>
           </cell>
           <cell r="C34">
-            <v>26.311378479003899</v>
+            <v>31.380952835083001</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>57.042682647705</v>
+            <v>59.939022064208899</v>
           </cell>
           <cell r="C35">
-            <v>26.1077861785888</v>
+            <v>31.678571701049801</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>57.707313537597599</v>
+            <v>62.073169708251903</v>
           </cell>
           <cell r="C36">
-            <v>25.4071865081787</v>
+            <v>30.892858505248999</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>58.451217651367102</v>
+            <v>62.865852355957003</v>
           </cell>
           <cell r="C37">
-            <v>25.9880256652832</v>
+            <v>31.2857151031494</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>59.445117950439403</v>
+            <v>63.012191772460902</v>
           </cell>
           <cell r="C38">
-            <v>26.431138992309499</v>
+            <v>32.3214302062988</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>59.646339416503899</v>
+            <v>64.158531188964801</v>
           </cell>
           <cell r="C39">
-            <v>26.149702072143501</v>
+            <v>31.726190567016602</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>61.506095886230398</v>
+            <v>65.390243530273395</v>
           </cell>
           <cell r="C40">
-            <v>26.694612503051701</v>
+            <v>31.5357151031494</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>60.585365295410099</v>
+            <v>66.1219482421875</v>
           </cell>
           <cell r="C41">
-            <v>25.694612503051701</v>
+            <v>31.690477371215799</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>61.085365295410099</v>
+            <v>66.463409423828097</v>
           </cell>
           <cell r="C42">
-            <v>24.712575912475501</v>
+            <v>31.761905670166001</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>62.3536567687988</v>
+            <v>67.048774719238196</v>
           </cell>
           <cell r="C43">
-            <v>25.7305393218994</v>
+            <v>32.464286804199197</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>62.207313537597599</v>
+            <v>66.829269409179602</v>
           </cell>
           <cell r="C44">
-            <v>26.011976242065401</v>
+            <v>31.416667938232401</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>62.713413238525298</v>
+            <v>67.512191772460895</v>
           </cell>
           <cell r="C45">
-            <v>25.538923263549801</v>
+            <v>33.238094329833899</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>63.054874420166001</v>
+            <v>68.634140014648395</v>
           </cell>
           <cell r="C46">
-            <v>25.550899505615199</v>
+            <v>32.595237731933501</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>62.3109741210937</v>
+            <v>68.951217651367102</v>
           </cell>
           <cell r="C47">
-            <v>24.598802566528299</v>
+            <v>33.035713195800703</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>62.262191772460902</v>
+            <v>70.158531188964801</v>
           </cell>
           <cell r="C48">
-            <v>25.3592815399169</v>
+            <v>31.964286804199201</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>64.414634704589801</v>
+            <v>70.353652954101506</v>
           </cell>
           <cell r="C49">
-            <v>25.443115234375</v>
+            <v>32.607143402099602</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>63.512191772460902</v>
+            <v>70.609756469726506</v>
           </cell>
           <cell r="C50">
-            <v>25.826347351074201</v>
+            <v>31.880952835083001</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>64.390243530273395</v>
+            <v>71.036582946777301</v>
           </cell>
           <cell r="C51">
-            <v>26.778444290161101</v>
+            <v>31.797618865966701</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>65.091461181640597</v>
+            <v>71.426826477050696</v>
           </cell>
           <cell r="C52">
-            <v>25.479042053222599</v>
+            <v>32.773811340332003</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>64.609756469726506</v>
+            <v>71.243896484375</v>
           </cell>
           <cell r="C53">
-            <v>25.2574863433837</v>
+            <v>32.345237731933501</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>64.890243530273395</v>
+            <v>72.536582946777301</v>
           </cell>
           <cell r="C54">
-            <v>25.910181045532202</v>
+            <v>33.642856597900298</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>64.798774719238196</v>
+            <v>72.817070007324205</v>
           </cell>
           <cell r="C55">
-            <v>24.964073181152301</v>
+            <v>32.023811340332003</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>65.189018249511705</v>
+            <v>73.195121765136705</v>
           </cell>
           <cell r="C56">
-            <v>25.473054885864201</v>
+            <v>30.809524536132798</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>66.323165893554602</v>
+            <v>73.1219482421875</v>
           </cell>
           <cell r="C57">
-            <v>25.778444290161101</v>
+            <v>31.654762268066399</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>66.402435302734304</v>
+            <v>73.719512939453097</v>
           </cell>
           <cell r="C58">
-            <v>27.143712997436499</v>
+            <v>32.869049072265597</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>64.664634704589801</v>
+            <v>73.134140014648395</v>
           </cell>
           <cell r="C59">
-            <v>25.467067718505799</v>
+            <v>30.7857151031494</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>67.585365295410099</v>
+            <v>74.536582946777301</v>
           </cell>
           <cell r="C60">
-            <v>24.994012832641602</v>
+            <v>31.964286804199201</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>65.713409423828097</v>
+            <v>74.951217651367102</v>
           </cell>
           <cell r="C61">
-            <v>25.856288909912099</v>
+            <v>32.190475463867102</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>66.518287658691406</v>
+            <v>74.804878234863196</v>
           </cell>
           <cell r="C62">
-            <v>24.658683776855401</v>
+            <v>31.142858505248999</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>67.060974121093693</v>
+            <v>75.329261779785099</v>
           </cell>
           <cell r="C63">
-            <v>25.083833694458001</v>
+            <v>31.6190490722656</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>67.628044128417898</v>
+            <v>73.804878234863196</v>
           </cell>
           <cell r="C64">
-            <v>24.784431457519499</v>
+            <v>32.166667938232401</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>66.939018249511705</v>
+            <v>76.390243530273395</v>
           </cell>
           <cell r="C65">
-            <v>25.2395210266113</v>
+            <v>34.095237731933501</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>67.25</v>
+            <v>74.353652954101506</v>
           </cell>
           <cell r="C66">
-            <v>25.3053894042968</v>
+            <v>32.464286804199197</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>68.201217651367102</v>
+            <v>75.707313537597599</v>
           </cell>
           <cell r="C67">
-            <v>25.712575912475501</v>
+            <v>31.678571701049801</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>68.689018249511705</v>
+            <v>75.695121765136705</v>
           </cell>
           <cell r="C68">
-            <v>24.910181045532202</v>
+            <v>32.404762268066399</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>69.896339416503906</v>
+            <v>77.439018249511705</v>
           </cell>
           <cell r="C69">
-            <v>24.760480880737301</v>
+            <v>31.690477371215799</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>70.353652954101506</v>
+            <v>76.219512939453097</v>
           </cell>
           <cell r="C70">
-            <v>25.1736545562744</v>
+            <v>32.392856597900298</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>70.560974121093693</v>
+            <v>77</v>
           </cell>
           <cell r="C71">
-            <v>24.796407699584901</v>
+            <v>32.761905670166001</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>70.012191772460895</v>
+            <v>76.804878234863196</v>
           </cell>
           <cell r="C72">
-            <v>24.497007369995099</v>
+            <v>31.1190490722656</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>70.963409423828097</v>
+            <v>76.463409423828097</v>
           </cell>
           <cell r="C73">
-            <v>24.688623428344702</v>
+            <v>32.880954742431598</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>70.317070007324205</v>
+            <v>76.097557067871094</v>
           </cell>
           <cell r="C74">
-            <v>24.964073181152301</v>
+            <v>31.178571701049801</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>70.408531188964801</v>
+            <v>77.073165893554602</v>
           </cell>
           <cell r="C75">
-            <v>27.556886672973601</v>
+            <v>33.059524536132798</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>72.243896484375</v>
+            <v>76.743896484375</v>
           </cell>
           <cell r="C76">
-            <v>25.904191970825099</v>
+            <v>31.404762268066399</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>71.189018249511705</v>
+            <v>77.426826477050696</v>
           </cell>
           <cell r="C77">
-            <v>25.850299835205</v>
+            <v>32.726192474365199</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>72.262191772460895</v>
+            <v>78.743896484375</v>
           </cell>
           <cell r="C78">
-            <v>26.179641723632798</v>
+            <v>31.023809432983398</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>71.579269409179602</v>
+            <v>78.451217651367102</v>
           </cell>
           <cell r="C79">
-            <v>27.131736755371001</v>
+            <v>32.023811340332003</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>72.695121765136705</v>
+            <v>76.182922363281193</v>
           </cell>
           <cell r="C80">
-            <v>25.125749588012599</v>
+            <v>31.976190567016602</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>71.524391174316406</v>
+            <v>77.548774719238196</v>
           </cell>
           <cell r="C81">
-            <v>25.856288909912099</v>
+            <v>33.011905670166001</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>72.292678833007798</v>
+            <v>77.256095886230398</v>
           </cell>
           <cell r="C82">
-            <v>26.011976242065401</v>
+            <v>32.916667938232401</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>72.164634704589801</v>
+            <v>78.012191772460895</v>
           </cell>
           <cell r="C83">
-            <v>25.0359287261962</v>
+            <v>33.0833320617675</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>72.274391174316406</v>
+            <v>77.548774719238196</v>
           </cell>
           <cell r="C84">
-            <v>26.1556892395019</v>
+            <v>30.559524536132798</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>73.628044128417898</v>
+            <v>77.5</v>
           </cell>
           <cell r="C85">
-            <v>25.0538940429687</v>
+            <v>30.940477371215799</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>72.091461181640597</v>
+            <v>78.731704711914006</v>
           </cell>
           <cell r="C86">
-            <v>25.497007369995099</v>
+            <v>30.845237731933501</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>73.347557067871094</v>
+            <v>78.341461181640597</v>
           </cell>
           <cell r="C87">
-            <v>24.293413162231399</v>
+            <v>34.297618865966797</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88">
-            <v>72.487800598144503</v>
+            <v>77.975608825683594</v>
           </cell>
           <cell r="C88">
-            <v>26.772455215454102</v>
+            <v>31.142858505248999</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89">
-            <v>73.109756469726506</v>
+            <v>77.658531188964801</v>
           </cell>
           <cell r="C89">
-            <v>25.8023967742919</v>
+            <v>30.880952835083001</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90">
-            <v>73.664634704589801</v>
+            <v>77.731704711914006</v>
           </cell>
           <cell r="C90">
-            <v>27.179641723632798</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91">
-            <v>74.1219482421875</v>
+            <v>78.756095886230398</v>
           </cell>
           <cell r="C91">
-            <v>25.3413181304931</v>
+            <v>32.214286804199197</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>78.231704711914006</v>
+          </cell>
+          <cell r="C92">
+            <v>33.023811340332003</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>79.195121765136705</v>
+          </cell>
+          <cell r="C93">
+            <v>31.071428298950099</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>78.060974121093693</v>
+          </cell>
+          <cell r="C94">
+            <v>31.595237731933501</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>79.243896484375</v>
+          </cell>
+          <cell r="C95">
+            <v>31.523809432983398</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>77.219512939453097</v>
+          </cell>
+          <cell r="C96">
+            <v>31.273809432983398</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>79.865852355957003</v>
+          </cell>
+          <cell r="C97">
+            <v>31.964286804199201</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>79.756095886230398</v>
+          </cell>
+          <cell r="C98">
+            <v>32.059524536132798</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>79.634140014648395</v>
+          </cell>
+          <cell r="C99">
+            <v>31.761905670166001</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>78.768287658691406</v>
+          </cell>
+          <cell r="C100">
+            <v>31.273809432983398</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>79.036582946777301</v>
+          </cell>
+          <cell r="C101">
+            <v>32.416667938232401</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="B1">
-            <v>23.298780441284102</v>
+            <v>22.987804412841701</v>
           </cell>
           <cell r="C1">
-            <v>26.047904968261701</v>
+            <v>25.297618865966701</v>
           </cell>
         </row>
         <row r="2">
           <cell r="B2">
-            <v>25.304876327514599</v>
+            <v>22.512193679809499</v>
           </cell>
           <cell r="C2">
-            <v>25.694612503051701</v>
+            <v>24.488096237182599</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>29.170730590820298</v>
+            <v>23.609754562377901</v>
           </cell>
           <cell r="C3">
-            <v>22.892215728759702</v>
+            <v>21.3333339691162</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>32.743900299072202</v>
+            <v>29.182926177978501</v>
           </cell>
           <cell r="C4">
-            <v>23.077844619750898</v>
+            <v>21.892856597900298</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>32.341461181640597</v>
+            <v>33.8536567687988</v>
           </cell>
           <cell r="C5">
-            <v>23.8023967742919</v>
+            <v>22.3333339691162</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>34.262195587158203</v>
+            <v>35.573169708251903</v>
           </cell>
           <cell r="C6">
-            <v>26.131736755371001</v>
+            <v>23.047618865966701</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>34.512195587158203</v>
+            <v>37.439022064208899</v>
           </cell>
           <cell r="C7">
-            <v>22.479042053222599</v>
+            <v>22.309524536132798</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>36.859756469726499</v>
+            <v>37.548778533935497</v>
           </cell>
           <cell r="C8">
-            <v>23.688623428344702</v>
+            <v>22.380952835083001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>35.585365295410099</v>
+            <v>41.426826477050703</v>
           </cell>
           <cell r="C9">
-            <v>22.8323364257812</v>
+            <v>22.654762268066399</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>36.975608825683501</v>
+            <v>41.475608825683501</v>
           </cell>
           <cell r="C10">
-            <v>22.862276077270501</v>
+            <v>23.273809432983398</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>37.024387359619098</v>
+            <v>40.865852355957003</v>
           </cell>
           <cell r="C11">
-            <v>22.796407699584901</v>
+            <v>23.226190567016602</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>38.804878234863203</v>
+            <v>42.439022064208899</v>
           </cell>
           <cell r="C12">
-            <v>23.251497268676701</v>
+            <v>24.130952835083001</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>39.0609741210937</v>
+            <v>45.4146308898925</v>
           </cell>
           <cell r="C13">
-            <v>22.7305393218994</v>
+            <v>23.845237731933501</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>37.701217651367102</v>
+            <v>44.658535003662102</v>
           </cell>
           <cell r="C14">
-            <v>23.64670753479</v>
+            <v>25.0833339691162</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>40.798778533935497</v>
+            <v>47.0609741210937</v>
           </cell>
           <cell r="C15">
-            <v>22.622755050659102</v>
+            <v>24.7023811340332</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>40.597560882568303</v>
+            <v>46.439022064208899</v>
           </cell>
           <cell r="C16">
-            <v>23.401199340820298</v>
+            <v>25.226190567016602</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>41.902439117431598</v>
+            <v>46.841461181640597</v>
           </cell>
           <cell r="C17">
-            <v>24.065868377685501</v>
+            <v>27.4523811340332</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>43.567070007324197</v>
+            <v>47.5609741210937</v>
           </cell>
           <cell r="C18">
-            <v>22.910181045532202</v>
+            <v>26.2023811340332</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>43.817070007324197</v>
+            <v>47.768291473388601</v>
           </cell>
           <cell r="C19">
-            <v>24.113773345947202</v>
+            <v>28.416667938232401</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>45.237804412841797</v>
+            <v>49.8536567687988</v>
           </cell>
           <cell r="C20">
-            <v>23.814373016357401</v>
+            <v>28.511905670166001</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>45.75</v>
+            <v>51.670730590820298</v>
           </cell>
           <cell r="C21">
-            <v>23.167665481567301</v>
+            <v>28.25</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>47.792682647705</v>
+            <v>53.256095886230398</v>
           </cell>
           <cell r="C22">
-            <v>24.113773345947202</v>
+            <v>29.2857151031494</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>49.231704711913999</v>
+            <v>53.219509124755803</v>
           </cell>
           <cell r="C23">
-            <v>24.826347351074201</v>
+            <v>29.2857151031494</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>48.780487060546797</v>
+            <v>53.719509124755803</v>
           </cell>
           <cell r="C24">
-            <v>25.5449104309082</v>
+            <v>29.428571701049801</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>49.554874420166001</v>
+            <v>55.243900299072202</v>
           </cell>
           <cell r="C25">
-            <v>24.443115234375</v>
+            <v>30.059524536132798</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>51.481704711913999</v>
+            <v>54.487804412841797</v>
           </cell>
           <cell r="C26">
-            <v>23.946107864379801</v>
+            <v>29.6190490722656</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>50.932926177978501</v>
+            <v>56.304874420166001</v>
           </cell>
           <cell r="C27">
-            <v>24.688623428344702</v>
+            <v>30.559524536132798</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>51.420730590820298</v>
+            <v>57.268291473388601</v>
           </cell>
           <cell r="C28">
-            <v>24.6287441253662</v>
+            <v>30.011905670166001</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>51.445121765136697</v>
+            <v>57.682926177978501</v>
           </cell>
           <cell r="C29">
-            <v>24.9520969390869</v>
+            <v>31.273809432983398</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>54.951217651367102</v>
+            <v>58.792678833007798</v>
           </cell>
           <cell r="C30">
-            <v>26.994012832641602</v>
+            <v>31.142858505248999</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>54.774387359619098</v>
+            <v>59.8536567687988</v>
           </cell>
           <cell r="C31">
-            <v>23.8862285614013</v>
+            <v>31.5357151031494</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>56.225608825683501</v>
+            <v>59.768291473388601</v>
           </cell>
           <cell r="C32">
-            <v>23.1856288909912</v>
+            <v>30.559524536132798</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>56.439022064208899</v>
+            <v>60.804874420166001</v>
           </cell>
           <cell r="C33">
-            <v>25.760480880737301</v>
+            <v>31.071428298950099</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>57.817070007324197</v>
+            <v>61.365852355957003</v>
           </cell>
           <cell r="C34">
-            <v>26.419162750244102</v>
+            <v>31.345237731933501</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>56.408535003662102</v>
+            <v>61.292678833007798</v>
           </cell>
           <cell r="C35">
-            <v>26.658683776855401</v>
+            <v>31.238096237182599</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>58.554874420166001</v>
+            <v>62.463413238525298</v>
           </cell>
           <cell r="C36">
-            <v>25.64670753479</v>
+            <v>31.297618865966701</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>58.573169708251903</v>
+            <v>63.682926177978501</v>
           </cell>
           <cell r="C37">
-            <v>25.754491806030199</v>
+            <v>32.559524536132798</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>59.128047943115199</v>
+            <v>63.597557067871001</v>
           </cell>
           <cell r="C38">
-            <v>26.077844619750898</v>
+            <v>32.107143402099602</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>61.243900299072202</v>
+            <v>65.963409423828097</v>
           </cell>
           <cell r="C39">
-            <v>26.029941558837798</v>
+            <v>31.392858505248999</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>60.073169708251903</v>
+            <v>65.134147644042898</v>
           </cell>
           <cell r="C40">
-            <v>26.9520969390869</v>
+            <v>32.238094329833899</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>60.804874420166001</v>
+            <v>65.5</v>
           </cell>
           <cell r="C41">
-            <v>25.694612503051701</v>
+            <v>31.380952835083001</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>61.048778533935497</v>
+            <v>67.207313537597599</v>
           </cell>
           <cell r="C42">
-            <v>24.1197605133056</v>
+            <v>32.404762268066399</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>62.280487060546797</v>
+            <v>66.780487060546804</v>
           </cell>
           <cell r="C43">
-            <v>25.3413181304931</v>
+            <v>31.142858505248999</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>62.8719482421875</v>
+            <v>67.829269409179602</v>
           </cell>
           <cell r="C44">
-            <v>26.1077861785888</v>
+            <v>32.8333320617675</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>62.878047943115199</v>
+            <v>68.170730590820298</v>
           </cell>
           <cell r="C45">
-            <v>25.029941558837798</v>
+            <v>33.047618865966797</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>64.359756469726506</v>
+            <v>69.926826477050696</v>
           </cell>
           <cell r="C46">
-            <v>25.574851989746001</v>
+            <v>32.761905670166001</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>63.798778533935497</v>
+            <v>68.634140014648395</v>
           </cell>
           <cell r="C47">
-            <v>24.197605133056602</v>
+            <v>32.428573608398402</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>63.0609741210937</v>
+            <v>69.878044128417898</v>
           </cell>
           <cell r="C48">
-            <v>24.8682651519775</v>
+            <v>32.964286804199197</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>63.597557067871001</v>
+            <v>70.573165893554602</v>
           </cell>
           <cell r="C49">
-            <v>25.287425994873001</v>
+            <v>32.607143402099602</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>64.384147644042898</v>
+            <v>70.634140014648395</v>
           </cell>
           <cell r="C50">
-            <v>25.143712997436499</v>
+            <v>31.047618865966701</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>65.993896484375</v>
+            <v>71.731704711914006</v>
           </cell>
           <cell r="C51">
-            <v>25.329341888427699</v>
+            <v>33.142856597900298</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>65.792678833007798</v>
+            <v>71.207313537597599</v>
           </cell>
           <cell r="C52">
-            <v>25.556886672973601</v>
+            <v>32.297618865966797</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>65.054878234863196</v>
+            <v>71.890243530273395</v>
           </cell>
           <cell r="C53">
-            <v>25.335330963134702</v>
+            <v>32.940475463867102</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>65.469512939453097</v>
+            <v>72.451217651367102</v>
           </cell>
           <cell r="C54">
-            <v>26.281438827514599</v>
+            <v>31.976190567016602</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>65.597557067871094</v>
+            <v>73.317070007324205</v>
           </cell>
           <cell r="C55">
-            <v>25.209581375121999</v>
+            <v>31.226190567016602</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>66.067070007324205</v>
+            <v>72.792678833007798</v>
           </cell>
           <cell r="C56">
-            <v>25.389223098754801</v>
+            <v>31.976190567016602</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>65.530487060546804</v>
+            <v>73.804878234863196</v>
           </cell>
           <cell r="C57">
-            <v>25.8682651519775</v>
+            <v>33.440475463867102</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>65.6219482421875</v>
+            <v>74.036582946777301</v>
           </cell>
           <cell r="C58">
-            <v>26.7305393218994</v>
+            <v>31.380952835083001</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>67</v>
+            <v>74.768287658691406</v>
           </cell>
           <cell r="C59">
-            <v>25.431138992309499</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>68.060974121093693</v>
+            <v>74.158531188964801</v>
           </cell>
           <cell r="C60">
-            <v>25.5808391571044</v>
+            <v>31.523809432983398</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>66.170730590820298</v>
+            <v>74.475608825683594</v>
           </cell>
           <cell r="C61">
-            <v>25.700599670410099</v>
+            <v>30.916667938232401</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>67.560974121093693</v>
+            <v>74.195121765136705</v>
           </cell>
           <cell r="C62">
-            <v>24.772455215454102</v>
+            <v>32.535713195800703</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>67.957313537597599</v>
+            <v>75.6219482421875</v>
           </cell>
           <cell r="C63">
-            <v>24.994012832641602</v>
+            <v>32.654762268066399</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>68</v>
+            <v>75.365852355957003</v>
           </cell>
           <cell r="C64">
-            <v>24.964073181152301</v>
+            <v>33.511905670166001</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>68.530487060546804</v>
+            <v>75.329261779785099</v>
           </cell>
           <cell r="C65">
-            <v>25.083833694458001</v>
+            <v>33.297618865966797</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>68.493896484375</v>
+            <v>75.219512939453097</v>
           </cell>
           <cell r="C66">
-            <v>25.7664680480957</v>
+            <v>31.857143402099599</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>68.890243530273395</v>
+            <v>75.914634704589801</v>
           </cell>
           <cell r="C67">
-            <v>26.5808391571044</v>
+            <v>31.595237731933501</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5331,7 +9640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E76918-7AE9-1C4D-B178-B40F02311DA4}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection sqref="A1:E101"/>
     </sheetView>
   </sheetViews>
@@ -7061,12 +11370,1732 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2C631-EEE2-954C-A945-E016E344ED4E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25.139999389648398</v>
+      </c>
+      <c r="C2">
+        <v>27.300001144409102</v>
+      </c>
+      <c r="D2">
+        <v>0.69627338647842396</v>
+      </c>
+      <c r="E2">
+        <v>1.3944352865219101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24.639999389648398</v>
+      </c>
+      <c r="C3">
+        <v>27.800001144409102</v>
+      </c>
+      <c r="D3">
+        <v>0.69602209329605103</v>
+      </c>
+      <c r="E3">
+        <v>1.3928412199020299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25.899999618530199</v>
+      </c>
+      <c r="C4">
+        <v>26.300001144409102</v>
+      </c>
+      <c r="D4">
+        <v>0.69440716505050604</v>
+      </c>
+      <c r="E4">
+        <v>1.3912098407745299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25.399999618530199</v>
+      </c>
+      <c r="C5">
+        <v>26.2000007629394</v>
+      </c>
+      <c r="D5">
+        <v>0.69461029767990101</v>
+      </c>
+      <c r="E5">
+        <v>1.3895956277847199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>26.5399990081787</v>
+      </c>
+      <c r="C6">
+        <v>26.300001144409102</v>
+      </c>
+      <c r="D6">
+        <v>0.69295674562454201</v>
+      </c>
+      <c r="E6">
+        <v>1.3893182277679399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>28.7399997711181</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>0.69079709053039495</v>
+      </c>
+      <c r="E7">
+        <v>1.3895674943923899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>29.2799987792968</v>
+      </c>
+      <c r="C8">
+        <v>26.2000007629394</v>
+      </c>
+      <c r="D8">
+        <v>0.69009840488433805</v>
+      </c>
+      <c r="E8">
+        <v>1.3895750045776301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>32.0599975585937</v>
+      </c>
+      <c r="C9">
+        <v>25.899999618530199</v>
+      </c>
+      <c r="D9">
+        <v>0.68852829933166504</v>
+      </c>
+      <c r="E9">
+        <v>1.3901886940002399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>34.380001068115199</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0.68677687644958496</v>
+      </c>
+      <c r="E10">
+        <v>1.3922207355499201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>35.739997863769503</v>
+      </c>
+      <c r="C11">
+        <v>23.100000381469702</v>
+      </c>
+      <c r="D11">
+        <v>0.684251308441162</v>
+      </c>
+      <c r="E11">
+        <v>1.3947880268096899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>35.860000610351499</v>
+      </c>
+      <c r="C12">
+        <v>23.899999618530199</v>
+      </c>
+      <c r="D12">
+        <v>0.68275910615920998</v>
+      </c>
+      <c r="E12">
+        <v>1.39448058605194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>36.139999389648402</v>
+      </c>
+      <c r="C13">
+        <v>25.300001144409102</v>
+      </c>
+      <c r="D13">
+        <v>0.680420041084289</v>
+      </c>
+      <c r="E13">
+        <v>1.3953832387924101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>42.159999847412102</v>
+      </c>
+      <c r="C14">
+        <v>24.7000007629394</v>
+      </c>
+      <c r="D14">
+        <v>0.677110135555267</v>
+      </c>
+      <c r="E14">
+        <v>1.39762651920318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>40.439998626708899</v>
+      </c>
+      <c r="C15">
+        <v>26.300001144409102</v>
+      </c>
+      <c r="D15">
+        <v>0.67590367794036799</v>
+      </c>
+      <c r="E15">
+        <v>1.4009655714035001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>41.939998626708899</v>
+      </c>
+      <c r="C16">
+        <v>24.100000381469702</v>
+      </c>
+      <c r="D16">
+        <v>0.67394262552261297</v>
+      </c>
+      <c r="E16">
+        <v>1.4035239219665501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>38.819999694824197</v>
+      </c>
+      <c r="C17">
+        <v>26.100000381469702</v>
+      </c>
+      <c r="D17">
+        <v>0.67247223854064897</v>
+      </c>
+      <c r="E17">
+        <v>1.4040005207061701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>44.759998321533203</v>
+      </c>
+      <c r="C18">
+        <v>25.7000007629394</v>
+      </c>
+      <c r="D18">
+        <v>0.66611021757125799</v>
+      </c>
+      <c r="E18">
+        <v>1.40911793708801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>43.639999389648402</v>
+      </c>
+      <c r="C19">
+        <v>25.800001144409102</v>
+      </c>
+      <c r="D19">
+        <v>0.66619110107421797</v>
+      </c>
+      <c r="E19">
+        <v>1.4083119630813501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>42.0599975585937</v>
+      </c>
+      <c r="C20">
+        <v>28.5</v>
+      </c>
+      <c r="D20">
+        <v>0.66188955307006803</v>
+      </c>
+      <c r="E20">
+        <v>1.41217577457427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>46.299999237060497</v>
+      </c>
+      <c r="C21">
+        <v>27.800001144409102</v>
+      </c>
+      <c r="D21">
+        <v>0.65897488594055098</v>
+      </c>
+      <c r="E21">
+        <v>1.4173345565795801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>45.079998016357401</v>
+      </c>
+      <c r="C22">
+        <v>25.300001144409102</v>
+      </c>
+      <c r="D22">
+        <v>0.65615624189376798</v>
+      </c>
+      <c r="E22">
+        <v>1.42193531990051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>43.520000457763601</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0.65207713842391901</v>
+      </c>
+      <c r="E23">
+        <v>1.4249361753463701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>45.520000457763601</v>
+      </c>
+      <c r="C24">
+        <v>27.600000381469702</v>
+      </c>
+      <c r="D24">
+        <v>0.65100699663162198</v>
+      </c>
+      <c r="E24">
+        <v>1.4258397817611601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>46.079998016357401</v>
+      </c>
+      <c r="C25">
+        <v>26.2000007629394</v>
+      </c>
+      <c r="D25">
+        <v>0.64643758535385099</v>
+      </c>
+      <c r="E25">
+        <v>1.4302717447280799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>46.779998779296797</v>
+      </c>
+      <c r="C26">
+        <v>27.600000381469702</v>
+      </c>
+      <c r="D26">
+        <v>0.64619445800781194</v>
+      </c>
+      <c r="E26">
+        <v>1.43054187297821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>48.180000305175703</v>
+      </c>
+      <c r="C27">
+        <v>29.300001144409102</v>
+      </c>
+      <c r="D27">
+        <v>0.637861788272857</v>
+      </c>
+      <c r="E27">
+        <v>1.4364765882492001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>49.659999847412102</v>
+      </c>
+      <c r="C28">
+        <v>29.100000381469702</v>
+      </c>
+      <c r="D28">
+        <v>0.63603997230529696</v>
+      </c>
+      <c r="E28">
+        <v>1.4421477317810001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>47.5</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0.63495916128158503</v>
+      </c>
+      <c r="E29">
+        <v>1.4451595544814999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>48.659999847412102</v>
+      </c>
+      <c r="C30">
+        <v>30.300001144409102</v>
+      </c>
+      <c r="D30">
+        <v>0.634629607200622</v>
+      </c>
+      <c r="E30">
+        <v>1.44335377216339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>47.239997863769503</v>
+      </c>
+      <c r="C31">
+        <v>28.7000007629394</v>
+      </c>
+      <c r="D31">
+        <v>0.63045364618301303</v>
+      </c>
+      <c r="E31">
+        <v>1.4524290561676001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>47.659999847412102</v>
+      </c>
+      <c r="C32">
+        <v>28.600000381469702</v>
+      </c>
+      <c r="D32">
+        <v>0.62417095899581898</v>
+      </c>
+      <c r="E32">
+        <v>1.4577207565307599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>49.619998931884702</v>
+      </c>
+      <c r="C33">
+        <v>26.300001144409102</v>
+      </c>
+      <c r="D33">
+        <v>0.61600720882415705</v>
+      </c>
+      <c r="E33">
+        <v>1.45375287532806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>50.03999710083</v>
+      </c>
+      <c r="C34">
+        <v>27.600000381469702</v>
+      </c>
+      <c r="D34">
+        <v>0.61203038692474299</v>
+      </c>
+      <c r="E34">
+        <v>1.4640129804611199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>48.860000610351499</v>
+      </c>
+      <c r="C35">
+        <v>29.7000007629394</v>
+      </c>
+      <c r="D35">
+        <v>0.61388570070266701</v>
+      </c>
+      <c r="E35">
+        <v>1.45688140392303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>50.599998474121001</v>
+      </c>
+      <c r="C36">
+        <v>29.5</v>
+      </c>
+      <c r="D36">
+        <v>0.60844814777374201</v>
+      </c>
+      <c r="E36">
+        <v>1.4708728790283201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>50.360000610351499</v>
+      </c>
+      <c r="C37">
+        <v>30.800001144409102</v>
+      </c>
+      <c r="D37">
+        <v>0.60339796543121305</v>
+      </c>
+      <c r="E37">
+        <v>1.4643751382827701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>52.020000457763601</v>
+      </c>
+      <c r="C38">
+        <v>31.5</v>
+      </c>
+      <c r="D38">
+        <v>0.59598147869110096</v>
+      </c>
+      <c r="E38">
+        <v>1.4703630208969101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>52.0599975585937</v>
+      </c>
+      <c r="C39">
+        <v>29.7000007629394</v>
+      </c>
+      <c r="D39">
+        <v>0.59564453363418501</v>
+      </c>
+      <c r="E39">
+        <v>1.4741177558898899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>51.5</v>
+      </c>
+      <c r="C40">
+        <v>31.2000007629394</v>
+      </c>
+      <c r="D40">
+        <v>0.59175193309783902</v>
+      </c>
+      <c r="E40">
+        <v>1.46703517436981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50.619998931884702</v>
+      </c>
+      <c r="C41">
+        <v>29.5</v>
+      </c>
+      <c r="D41">
+        <v>0.59165740013122503</v>
+      </c>
+      <c r="E41">
+        <v>1.4793565273284901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>53.079998016357401</v>
+      </c>
+      <c r="C42">
+        <v>31.5</v>
+      </c>
+      <c r="D42">
+        <v>0.58355355262756303</v>
+      </c>
+      <c r="E42">
+        <v>1.46996009349823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>53.53999710083</v>
+      </c>
+      <c r="C43">
+        <v>30.399999618530199</v>
+      </c>
+      <c r="D43">
+        <v>0.577148556709289</v>
+      </c>
+      <c r="E43">
+        <v>1.4781569242477399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>51.899997711181598</v>
+      </c>
+      <c r="C44">
+        <v>29.7000007629394</v>
+      </c>
+      <c r="D44">
+        <v>0.58092343807220403</v>
+      </c>
+      <c r="E44">
+        <v>1.4815658330917301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>54.340000152587798</v>
+      </c>
+      <c r="C45">
+        <v>27.5</v>
+      </c>
+      <c r="D45">
+        <v>0.56866800785064697</v>
+      </c>
+      <c r="E45">
+        <v>1.4944213628768901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>52.159999847412102</v>
+      </c>
+      <c r="C46">
+        <v>30.899999618530199</v>
+      </c>
+      <c r="D46">
+        <v>0.57222938537597601</v>
+      </c>
+      <c r="E46">
+        <v>1.4799984693527199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>54.219997406005803</v>
+      </c>
+      <c r="C47">
+        <v>29.7000007629394</v>
+      </c>
+      <c r="D47">
+        <v>0.56601619720458896</v>
+      </c>
+      <c r="E47">
+        <v>1.48428153991699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>55.879997253417898</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>0.55667346715927102</v>
+      </c>
+      <c r="E48">
+        <v>1.48122870922088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>53.579998016357401</v>
+      </c>
+      <c r="C49">
+        <v>31.5</v>
+      </c>
+      <c r="D49">
+        <v>0.55953633785247803</v>
+      </c>
+      <c r="E49">
+        <v>1.47974634170532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>53.739997863769503</v>
+      </c>
+      <c r="C50">
+        <v>32.100002288818303</v>
+      </c>
+      <c r="D50">
+        <v>0.56091922521591098</v>
+      </c>
+      <c r="E50">
+        <v>1.47787129878997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>54.579998016357401</v>
+      </c>
+      <c r="C51">
+        <v>32.400001525878899</v>
+      </c>
+      <c r="D51">
+        <v>0.55084168910980202</v>
+      </c>
+      <c r="E51">
+        <v>1.4982393980026201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>53.840000152587798</v>
+      </c>
+      <c r="C52">
+        <v>30.5</v>
+      </c>
+      <c r="D52">
+        <v>0.54553174972534102</v>
+      </c>
+      <c r="E52">
+        <v>1.52100217342376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>56.579998016357401</v>
+      </c>
+      <c r="C53">
+        <v>31.300001144409102</v>
+      </c>
+      <c r="D53">
+        <v>0.53988075256347601</v>
+      </c>
+      <c r="E53">
+        <v>1.4905474185943599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>55.959999084472599</v>
+      </c>
+      <c r="C54">
+        <v>33.900001525878899</v>
+      </c>
+      <c r="D54">
+        <v>0.53292483091354304</v>
+      </c>
+      <c r="E54">
+        <v>1.4811595678329399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>58.959999084472599</v>
+      </c>
+      <c r="C55">
+        <v>30.300001144409102</v>
+      </c>
+      <c r="D55">
+        <v>0.53198671340942305</v>
+      </c>
+      <c r="E55">
+        <v>1.4905141592025699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>56.659999847412102</v>
+      </c>
+      <c r="C56">
+        <v>34.200000762939403</v>
+      </c>
+      <c r="D56">
+        <v>0.53693211078643799</v>
+      </c>
+      <c r="E56">
+        <v>1.4726699590682899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>57.299999237060497</v>
+      </c>
+      <c r="C57">
+        <v>34.600002288818303</v>
+      </c>
+      <c r="D57">
+        <v>0.52981275320053101</v>
+      </c>
+      <c r="E57">
+        <v>1.4985986948013299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>59.53999710083</v>
+      </c>
+      <c r="C58">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>0.521167993545532</v>
+      </c>
+      <c r="E58">
+        <v>1.52909684181213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>58.180000305175703</v>
+      </c>
+      <c r="C59">
+        <v>31.7000007629394</v>
+      </c>
+      <c r="D59">
+        <v>0.51594322919845503</v>
+      </c>
+      <c r="E59">
+        <v>1.4936338663101101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>57.799999237060497</v>
+      </c>
+      <c r="C60">
+        <v>33.900001525878899</v>
+      </c>
+      <c r="D60">
+        <v>0.52373003959655695</v>
+      </c>
+      <c r="E60">
+        <v>1.5248094797134399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>56.899997711181598</v>
+      </c>
+      <c r="C61">
+        <v>32.400001525878899</v>
+      </c>
+      <c r="D61">
+        <v>0.52129274606704701</v>
+      </c>
+      <c r="E61">
+        <v>1.47999835014343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>60.419998168945298</v>
+      </c>
+      <c r="C62">
+        <v>30.399999618530199</v>
+      </c>
+      <c r="D62">
+        <v>0.49985331296920699</v>
+      </c>
+      <c r="E62">
+        <v>1.5333552360534599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>59.119998931884702</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>0.51176178455352705</v>
+      </c>
+      <c r="E63">
+        <v>1.5134333372116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>59.239997863769503</v>
+      </c>
+      <c r="C64">
+        <v>34</v>
+      </c>
+      <c r="D64">
+        <v>0.50493878126144398</v>
+      </c>
+      <c r="E64">
+        <v>1.5184758901596001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>61.099998474121001</v>
+      </c>
+      <c r="C65">
+        <v>32.799999237060497</v>
+      </c>
+      <c r="D65">
+        <v>0.49446561932563698</v>
+      </c>
+      <c r="E65">
+        <v>1.5852538347244201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>60.439998626708899</v>
+      </c>
+      <c r="C66">
+        <v>34.799999237060497</v>
+      </c>
+      <c r="D66">
+        <v>0.49669149518013</v>
+      </c>
+      <c r="E66">
+        <v>1.5678694248199401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>61.159999847412102</v>
+      </c>
+      <c r="C67">
+        <v>35.799999237060497</v>
+      </c>
+      <c r="D67">
+        <v>0.490203768014907</v>
+      </c>
+      <c r="E67">
+        <v>1.4848395586013701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>61.279998779296797</v>
+      </c>
+      <c r="C68">
+        <v>35.700000762939403</v>
+      </c>
+      <c r="D68">
+        <v>0.48263210058212203</v>
+      </c>
+      <c r="E68">
+        <v>1.50854527950286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>60.659999847412102</v>
+      </c>
+      <c r="C69">
+        <v>36.700000762939403</v>
+      </c>
+      <c r="D69">
+        <v>0.48699724674224798</v>
+      </c>
+      <c r="E69">
+        <v>1.50820183753967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>63.279998779296797</v>
+      </c>
+      <c r="C70">
+        <v>34.700000762939403</v>
+      </c>
+      <c r="D70">
+        <v>0.47866210341453502</v>
+      </c>
+      <c r="E70">
+        <v>1.5476037263870199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>60.840000152587798</v>
+      </c>
+      <c r="C71">
+        <v>35.700000762939403</v>
+      </c>
+      <c r="D71">
+        <v>0.47866022586822499</v>
+      </c>
+      <c r="E71">
+        <v>1.5368342399597099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>61.859996795654297</v>
+      </c>
+      <c r="C72">
+        <v>34.600002288818303</v>
+      </c>
+      <c r="D72">
+        <v>0.47056674957275302</v>
+      </c>
+      <c r="E72">
+        <v>1.51651835441589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>62</v>
+      </c>
+      <c r="C73">
+        <v>35.299999237060497</v>
+      </c>
+      <c r="D73">
+        <v>0.46940007805824202</v>
+      </c>
+      <c r="E73">
+        <v>1.53218734264373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>62.759998321533203</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74">
+        <v>0.46992444992065402</v>
+      </c>
+      <c r="E74">
+        <v>1.5727829933166499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>63.779998779296797</v>
+      </c>
+      <c r="C75">
+        <v>35.400001525878899</v>
+      </c>
+      <c r="D75">
+        <v>0.45769241452217102</v>
+      </c>
+      <c r="E75">
+        <v>1.6166025400161701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>64.279998779296804</v>
+      </c>
+      <c r="C76">
+        <v>37.5</v>
+      </c>
+      <c r="D76">
+        <v>0.45567792654037398</v>
+      </c>
+      <c r="E76">
+        <v>1.5622419118881199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>63.0599975585937</v>
+      </c>
+      <c r="C77">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="D77">
+        <v>0.46554803848266602</v>
+      </c>
+      <c r="E77">
+        <v>1.5284233093261701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>63.919998168945298</v>
+      </c>
+      <c r="C78">
+        <v>40.200000762939403</v>
+      </c>
+      <c r="D78">
+        <v>0.45150730013847301</v>
+      </c>
+      <c r="E78">
+        <v>1.52381956577301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>63.5599975585937</v>
+      </c>
+      <c r="C79">
+        <v>39.200000762939403</v>
+      </c>
+      <c r="D79">
+        <v>0.45755892992019598</v>
+      </c>
+      <c r="E79">
+        <v>1.5474319458007799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>64.819999694824205</v>
+      </c>
+      <c r="C80">
+        <v>39.799999237060497</v>
+      </c>
+      <c r="D80">
+        <v>0.45327392220497098</v>
+      </c>
+      <c r="E80">
+        <v>1.5101242065429601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>64.900001525878906</v>
+      </c>
+      <c r="C81">
+        <v>37.299999237060497</v>
+      </c>
+      <c r="D81">
+        <v>0.44625848531723</v>
+      </c>
+      <c r="E81">
+        <v>1.5800354480743399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>66.919998168945298</v>
+      </c>
+      <c r="C82">
+        <v>39.900001525878899</v>
+      </c>
+      <c r="D82">
+        <v>0.43635454773902799</v>
+      </c>
+      <c r="E82">
+        <v>1.52527928352355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>64.059997558593693</v>
+      </c>
+      <c r="C83">
+        <v>38.400001525878899</v>
+      </c>
+      <c r="D83">
+        <v>0.44189003109931901</v>
+      </c>
+      <c r="E83">
+        <v>1.6022306680679299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>64.979995727539006</v>
+      </c>
+      <c r="C84">
+        <v>40.799999237060497</v>
+      </c>
+      <c r="D84">
+        <v>0.441248089075088</v>
+      </c>
+      <c r="E84">
+        <v>1.53287053108215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>65.760002136230398</v>
+      </c>
+      <c r="C85">
+        <v>38.900001525878899</v>
+      </c>
+      <c r="D85">
+        <v>0.43568679690361001</v>
+      </c>
+      <c r="E85">
+        <v>1.55903768539428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>66.459999084472599</v>
+      </c>
+      <c r="C86">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="D86">
+        <v>0.43231052160263</v>
+      </c>
+      <c r="E86">
+        <v>1.6723612546920701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>66.540000915527301</v>
+      </c>
+      <c r="C87">
+        <v>38.5</v>
+      </c>
+      <c r="D87">
+        <v>0.43412250280380199</v>
+      </c>
+      <c r="E87">
+        <v>1.62166011333465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>68.059997558593693</v>
+      </c>
+      <c r="C88">
+        <v>43</v>
+      </c>
+      <c r="D88">
+        <v>0.420526802539825</v>
+      </c>
+      <c r="E88">
+        <v>1.5290380716323799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>66.720001220703097</v>
+      </c>
+      <c r="C89">
+        <v>36.900001525878899</v>
+      </c>
+      <c r="D89">
+        <v>0.42694902420043901</v>
+      </c>
+      <c r="E89">
+        <v>1.57680976390838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>67.059997558593693</v>
+      </c>
+      <c r="C90">
+        <v>38.900001525878899</v>
+      </c>
+      <c r="D90">
+        <v>0.425829917192459</v>
+      </c>
+      <c r="E90">
+        <v>1.6320101022720299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>67.339996337890597</v>
+      </c>
+      <c r="C91">
+        <v>39.700000762939403</v>
+      </c>
+      <c r="D91">
+        <v>0.42124286293983398</v>
+      </c>
+      <c r="E91">
+        <v>1.60036933422088</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>66.139999389648395</v>
+      </c>
+      <c r="C92">
+        <v>43</v>
+      </c>
+      <c r="D92">
+        <v>0.42353215813636702</v>
+      </c>
+      <c r="E92">
+        <v>1.5550798177719101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>67.599998474121094</v>
+      </c>
+      <c r="C93">
+        <v>37.600002288818303</v>
+      </c>
+      <c r="D93">
+        <v>0.41594308614730802</v>
+      </c>
+      <c r="E93">
+        <v>1.72267174720764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>68</v>
+      </c>
+      <c r="C94">
+        <v>41.100002288818303</v>
+      </c>
+      <c r="D94">
+        <v>0.41562220454215998</v>
+      </c>
+      <c r="E94">
+        <v>1.6104376316070499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>68.819999694824205</v>
+      </c>
+      <c r="C95">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D95">
+        <v>0.40501943230628901</v>
+      </c>
+      <c r="E95">
+        <v>1.56674563884735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>66.760002136230398</v>
+      </c>
+      <c r="C96">
+        <v>38.100002288818303</v>
+      </c>
+      <c r="D96">
+        <v>0.425950497388839</v>
+      </c>
+      <c r="E96">
+        <v>1.66043317317962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>66.720001220703097</v>
+      </c>
+      <c r="C97">
+        <v>41.299999237060497</v>
+      </c>
+      <c r="D97">
+        <v>0.43439811468124301</v>
+      </c>
+      <c r="E97">
+        <v>1.55756783485412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>68.699996948242102</v>
+      </c>
+      <c r="C98">
+        <v>40.5</v>
+      </c>
+      <c r="D98">
+        <v>0.411456137895584</v>
+      </c>
+      <c r="E98">
+        <v>1.6296499967575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>67.059997558593693</v>
+      </c>
+      <c r="C99">
+        <v>39.600002288818303</v>
+      </c>
+      <c r="D99">
+        <v>0.409297704696655</v>
+      </c>
+      <c r="E99">
+        <v>1.67889404296875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>68.540000915527301</v>
+      </c>
+      <c r="C100">
+        <v>41.400001525878899</v>
+      </c>
+      <c r="D100">
+        <v>0.40632712841033902</v>
+      </c>
+      <c r="E100">
+        <v>1.6214122772216699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>68.319999694824205</v>
+      </c>
+      <c r="C101">
+        <v>39.100002288818303</v>
+      </c>
+      <c r="D101">
+        <v>0.40837275981902998</v>
+      </c>
+      <c r="E101">
+        <v>1.6036446094512899</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7075,12 +13104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61228A74-23CC-544B-9D91-4320BBF14547}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/batch-size.xlsx
+++ b/output/batch-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0E5E4-A70A-0D49-B936-98481FB95933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47275A55-F0AA-F24A-9848-55BF4975BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35100" yWindow="500" windowWidth="29840" windowHeight="18400" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
   </bookViews>
@@ -3112,312 +3112,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'[1]500files'!$B$1:$B$101</c:f>
+              <c:f>'40'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>27.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.341463088989201</c:v>
+                  <c:v>27.800001144409102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.085365295410099</c:v>
+                  <c:v>26.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5609741210937</c:v>
+                  <c:v>26.2000007629394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.9146327972412</c:v>
+                  <c:v>26.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.573169708251903</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.182926177978501</c:v>
+                  <c:v>26.2000007629394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.487804412841797</c:v>
+                  <c:v>25.899999618530199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.390243530273402</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.158535003662102</c:v>
+                  <c:v>23.100000381469702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.719509124755803</c:v>
+                  <c:v>23.899999618530199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.304878234863203</c:v>
+                  <c:v>25.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.073169708251903</c:v>
+                  <c:v>24.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.280487060546797</c:v>
+                  <c:v>26.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.280487060546797</c:v>
+                  <c:v>24.100000381469702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.756095886230398</c:v>
+                  <c:v>26.100000381469702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.158535003662102</c:v>
+                  <c:v>25.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.012191772460902</c:v>
+                  <c:v>25.800001144409102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.926826477050703</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.487804412841797</c:v>
+                  <c:v>27.800001144409102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.4146308898925</c:v>
+                  <c:v>25.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.256095886230398</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.499996185302699</c:v>
+                  <c:v>27.600000381469702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.926826477050703</c:v>
+                  <c:v>26.2000007629394</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.9146308898925</c:v>
+                  <c:v>27.600000381469702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.012191772460902</c:v>
+                  <c:v>29.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.524387359619098</c:v>
+                  <c:v>29.100000381469702</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.085365295410099</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56.804874420166001</c:v>
+                  <c:v>30.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.6219482421875</c:v>
+                  <c:v>28.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.829265594482401</c:v>
+                  <c:v>28.600000381469702</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59.378047943115199</c:v>
+                  <c:v>26.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59.292678833007798</c:v>
+                  <c:v>27.600000381469702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60.1219482421875</c:v>
+                  <c:v>29.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.939022064208899</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.073169708251903</c:v>
+                  <c:v>30.800001144409102</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.865852355957003</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63.012191772460902</c:v>
+                  <c:v>29.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64.158531188964801</c:v>
+                  <c:v>31.2000007629394</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.390243530273395</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66.1219482421875</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66.463409423828097</c:v>
+                  <c:v>30.399999618530199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>67.048774719238196</c:v>
+                  <c:v>29.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66.829269409179602</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>67.512191772460895</c:v>
+                  <c:v>30.899999618530199</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.634140014648395</c:v>
+                  <c:v>29.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>68.951217651367102</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>70.158531188964801</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>70.353652954101506</c:v>
+                  <c:v>32.100002288818303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>70.609756469726506</c:v>
+                  <c:v>32.400001525878899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71.036582946777301</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>71.426826477050696</c:v>
+                  <c:v>31.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71.243896484375</c:v>
+                  <c:v>33.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72.536582946777301</c:v>
+                  <c:v>30.300001144409102</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.817070007324205</c:v>
+                  <c:v>34.200000762939403</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>73.195121765136705</c:v>
+                  <c:v>34.600002288818303</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>73.1219482421875</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>73.719512939453097</c:v>
+                  <c:v>31.7000007629394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>73.134140014648395</c:v>
+                  <c:v>33.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>74.536582946777301</c:v>
+                  <c:v>32.400001525878899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>74.951217651367102</c:v>
+                  <c:v>30.399999618530199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>74.804878234863196</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75.329261779785099</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>73.804878234863196</c:v>
+                  <c:v>32.799999237060497</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>76.390243530273395</c:v>
+                  <c:v>34.799999237060497</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74.353652954101506</c:v>
+                  <c:v>35.799999237060497</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>75.707313537597599</c:v>
+                  <c:v>35.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>75.695121765136705</c:v>
+                  <c:v>36.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>77.439018249511705</c:v>
+                  <c:v>34.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>76.219512939453097</c:v>
+                  <c:v>35.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>77</c:v>
+                  <c:v>34.600002288818303</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>76.804878234863196</c:v>
+                  <c:v>35.299999237060497</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>76.463409423828097</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>76.097557067871094</c:v>
+                  <c:v>35.400001525878899</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>77.073165893554602</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76.743896484375</c:v>
+                  <c:v>37.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77.426826477050696</c:v>
+                  <c:v>40.200000762939403</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78.743896484375</c:v>
+                  <c:v>39.200000762939403</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78.451217651367102</c:v>
+                  <c:v>39.799999237060497</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>76.182922363281193</c:v>
+                  <c:v>37.299999237060497</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>77.548774719238196</c:v>
+                  <c:v>39.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77.256095886230398</c:v>
+                  <c:v>38.400001525878899</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>78.012191772460895</c:v>
+                  <c:v>40.799999237060497</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>77.548774719238196</c:v>
+                  <c:v>38.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>77.5</c:v>
+                  <c:v>37.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>78.731704711914006</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>78.341461181640597</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.975608825683594</c:v>
+                  <c:v>36.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>77.658531188964801</c:v>
+                  <c:v>38.900001525878899</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>77.731704711914006</c:v>
+                  <c:v>39.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>78.756095886230398</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78.231704711914006</c:v>
+                  <c:v>37.600002288818303</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>79.195121765136705</c:v>
+                  <c:v>41.100002288818303</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>78.060974121093693</c:v>
+                  <c:v>41.700000762939403</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>79.243896484375</c:v>
+                  <c:v>38.100002288818303</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>77.219512939453097</c:v>
+                  <c:v>41.299999237060497</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>79.865852355957003</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79.756095886230398</c:v>
+                  <c:v>39.600002288818303</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>79.634140014648395</c:v>
+                  <c:v>41.400001525878899</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>78.768287658691406</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>79.036582946777301</c:v>
+                  <c:v>39.100002288818303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4356,801 +4353,6 @@
           <cell r="B2">
             <v>25.411764099999999</v>
           </cell>
-          <cell r="C2">
-            <v>26.4705887</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>26.8823528</v>
-          </cell>
-          <cell r="C3">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>26.4705887</v>
-          </cell>
-          <cell r="C4">
-            <v>22.6470585</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>25</v>
-          </cell>
-          <cell r="C5">
-            <v>24.0588245</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>26.411764099999999</v>
-          </cell>
-          <cell r="C6">
-            <v>22.705883</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>23.941177400000001</v>
-          </cell>
-          <cell r="C7">
-            <v>24.941177400000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>28.8235302</v>
-          </cell>
-          <cell r="C8">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>27</v>
-          </cell>
-          <cell r="C9">
-            <v>23.588235900000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>27</v>
-          </cell>
-          <cell r="C10">
-            <v>25.5294113</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>24.4705887</v>
-          </cell>
-          <cell r="C11">
-            <v>25.588235900000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>27.411764099999999</v>
-          </cell>
-          <cell r="C12">
-            <v>27.294117</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>29.5294113</v>
-          </cell>
-          <cell r="C13">
-            <v>25.4705887</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>28.941177400000001</v>
-          </cell>
-          <cell r="C14">
-            <v>25.4705887</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>31.3529415</v>
-          </cell>
-          <cell r="C15">
-            <v>23.411764099999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>32.8235283</v>
-          </cell>
-          <cell r="C16">
-            <v>20.1176472</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>33.7647057</v>
-          </cell>
-          <cell r="C17">
-            <v>20.588235900000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>32.8823547</v>
-          </cell>
-          <cell r="C18">
-            <v>20.1176472</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>39.647060400000001</v>
-          </cell>
-          <cell r="C19">
-            <v>20.1176472</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>34.2352943</v>
-          </cell>
-          <cell r="C20">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>34.2352943</v>
-          </cell>
-          <cell r="C21">
-            <v>19.1176472</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>39.1764717</v>
-          </cell>
-          <cell r="C22">
-            <v>20.588235900000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>41.2352943</v>
-          </cell>
-          <cell r="C23">
-            <v>24.1176472</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>42.588233899999999</v>
-          </cell>
-          <cell r="C24">
-            <v>21.0588245</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>42.1764717</v>
-          </cell>
-          <cell r="C25">
-            <v>23.588235900000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>38.705883</v>
-          </cell>
-          <cell r="C26">
-            <v>23.1764698</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>43.647060400000001</v>
-          </cell>
-          <cell r="C27">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>45.058822599999999</v>
-          </cell>
-          <cell r="C28">
-            <v>20.1764698</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>42.117649100000001</v>
-          </cell>
-          <cell r="C29">
-            <v>21.6470585</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>44.1764717</v>
-          </cell>
-          <cell r="C30">
-            <v>19.5294113</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42.705883</v>
-          </cell>
-          <cell r="C31">
-            <v>22.5294113</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>40.117649100000001</v>
-          </cell>
-          <cell r="C32">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>41.2352943</v>
-          </cell>
-          <cell r="C33">
-            <v>23.588235900000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>41.705883</v>
-          </cell>
-          <cell r="C34">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>43.647060400000001</v>
-          </cell>
-          <cell r="C35">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>42.1764717</v>
-          </cell>
-          <cell r="C36">
-            <v>23.941177400000001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>40.705883</v>
-          </cell>
-          <cell r="C37">
-            <v>20.1176472</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>39.2352943</v>
-          </cell>
-          <cell r="C38">
-            <v>19.705883</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>38.1764717</v>
-          </cell>
-          <cell r="C39">
-            <v>19.6470585</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>39.647060400000001</v>
-          </cell>
-          <cell r="C40">
-            <v>19.5294113</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>43.058822599999999</v>
-          </cell>
-          <cell r="C41">
-            <v>22.588235900000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>38.2352943</v>
-          </cell>
-          <cell r="C42">
-            <v>18.705883</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>43.705883</v>
-          </cell>
-          <cell r="C43">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>43.4705887</v>
-          </cell>
-          <cell r="C44">
-            <v>18.0588245</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>43.1764717</v>
-          </cell>
-          <cell r="C45">
-            <v>20.588235900000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>43.705883</v>
-          </cell>
-          <cell r="C46">
-            <v>18.2352943</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>41.1764717</v>
-          </cell>
-          <cell r="C47">
-            <v>18.0588245</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>46.058822599999999</v>
-          </cell>
-          <cell r="C48">
-            <v>19.1764698</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>42.588233899999999</v>
-          </cell>
-          <cell r="C49">
-            <v>21.1176472</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>43.1764717</v>
-          </cell>
-          <cell r="C50">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>41.117649100000001</v>
-          </cell>
-          <cell r="C51">
-            <v>19.1176472</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>45.647060400000001</v>
-          </cell>
-          <cell r="C52">
-            <v>20.5294113</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>46.588233899999999</v>
-          </cell>
-          <cell r="C53">
-            <v>22.5294113</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>45.647060400000001</v>
-          </cell>
-          <cell r="C54">
-            <v>21.0588245</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>48.058822599999999</v>
-          </cell>
-          <cell r="C55">
-            <v>21.1176472</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>45.117649100000001</v>
-          </cell>
-          <cell r="C56">
-            <v>23.1176472</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>46.117649100000001</v>
-          </cell>
-          <cell r="C57">
-            <v>20.0588245</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>45.058822599999999</v>
-          </cell>
-          <cell r="C58">
-            <v>19.705883</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>47.058822599999999</v>
-          </cell>
-          <cell r="C59">
-            <v>21.411764099999999</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>48.4705887</v>
-          </cell>
-          <cell r="C60">
-            <v>21.588235900000001</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>44.705883</v>
-          </cell>
-          <cell r="C61">
-            <v>20.2352943</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>45.705883</v>
-          </cell>
-          <cell r="C62">
-            <v>20.588235900000001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>48</v>
-          </cell>
-          <cell r="C63">
-            <v>21.4705887</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>50</v>
-          </cell>
-          <cell r="C64">
-            <v>18.6470585</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>45.058822599999999</v>
-          </cell>
-          <cell r="C65">
-            <v>21.1176472</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>51.8823547</v>
-          </cell>
-          <cell r="C66">
-            <v>24.0588245</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>44.588233899999999</v>
-          </cell>
-          <cell r="C67">
-            <v>19.6470585</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>48.5294113</v>
-          </cell>
-          <cell r="C68">
-            <v>19.6470585</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>49.5294113</v>
-          </cell>
-          <cell r="C69">
-            <v>19.5294113</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>52.117649100000001</v>
-          </cell>
-          <cell r="C70">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>48.4705887</v>
-          </cell>
-          <cell r="C71">
-            <v>22.1764698</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>52.5294113</v>
-          </cell>
-          <cell r="C72">
-            <v>21.0588245</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>46.058822599999999</v>
-          </cell>
-          <cell r="C73">
-            <v>21.5294113</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>51.058822599999999</v>
-          </cell>
-          <cell r="C74">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>43.8235283</v>
-          </cell>
-          <cell r="C75">
-            <v>19.1176472</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>46.647060400000001</v>
-          </cell>
-          <cell r="C76">
-            <v>22.588235900000001</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>47.058822599999999</v>
-          </cell>
-          <cell r="C77">
-            <v>18.588235900000001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>53.352939599999999</v>
-          </cell>
-          <cell r="C78">
-            <v>18.1176472</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>45.117649100000001</v>
-          </cell>
-          <cell r="C79">
-            <v>19.6470585</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>50</v>
-          </cell>
-          <cell r="C80">
-            <v>17.6470585</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>47.647060400000001</v>
-          </cell>
-          <cell r="C81">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>46.5294113</v>
-          </cell>
-          <cell r="C82">
-            <v>17.0588245</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>48.647060400000001</v>
-          </cell>
-          <cell r="C83">
-            <v>17.294117</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>51.8823547</v>
-          </cell>
-          <cell r="C84">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>54.941177400000001</v>
-          </cell>
-          <cell r="C85">
-            <v>18.1176472</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>44.588233899999999</v>
-          </cell>
-          <cell r="C86">
-            <v>18.1176472</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>47.4705887</v>
-          </cell>
-          <cell r="C87">
-            <v>17.0588245</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>48.117649100000001</v>
-          </cell>
-          <cell r="C88">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>48.058822599999999</v>
-          </cell>
-          <cell r="C89">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>48.411766100000001</v>
-          </cell>
-          <cell r="C90">
-            <v>19.0588245</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>54.8235283</v>
-          </cell>
-          <cell r="C91">
-            <v>21.5294113</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>50.5294113</v>
-          </cell>
-          <cell r="C92">
-            <v>19.1764698</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>49.4705887</v>
-          </cell>
-          <cell r="C93">
-            <v>22.6470585</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>52.411766100000001</v>
-          </cell>
-          <cell r="C94">
-            <v>18.588235900000001</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>50</v>
-          </cell>
-          <cell r="C95">
-            <v>18.1176472</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>51</v>
-          </cell>
-          <cell r="C96">
-            <v>19.0588245</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>54.058822599999999</v>
-          </cell>
-          <cell r="C97">
-            <v>20.0588245</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>51.352939599999999</v>
-          </cell>
-          <cell r="C98">
-            <v>19.0588245</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>51.4705887</v>
-          </cell>
-          <cell r="C99">
-            <v>19.588235900000001</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>51.8823547</v>
-          </cell>
-          <cell r="C100">
-            <v>18.5294113</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>54.8823547</v>
-          </cell>
-          <cell r="C101">
-            <v>19.0588245</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -5158,1100 +4360,500 @@
           <cell r="A2">
             <v>0</v>
           </cell>
-          <cell r="B2">
-            <v>22.529411315917901</v>
-          </cell>
-          <cell r="C2">
-            <v>32.058822631835902</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3">
             <v>1</v>
           </cell>
-          <cell r="B3">
-            <v>21.852941513061499</v>
-          </cell>
-          <cell r="C3">
-            <v>29.852941513061499</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4">
             <v>2</v>
           </cell>
-          <cell r="B4">
-            <v>20.617647171020501</v>
-          </cell>
-          <cell r="C4">
-            <v>31.176469802856399</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5">
             <v>3</v>
           </cell>
-          <cell r="B5">
-            <v>20.058824539184499</v>
-          </cell>
-          <cell r="C5">
-            <v>31.352941513061499</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6">
             <v>4</v>
           </cell>
-          <cell r="B6">
-            <v>20.823530197143501</v>
-          </cell>
-          <cell r="C6">
-            <v>30.235294342041001</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7">
             <v>5</v>
           </cell>
-          <cell r="B7">
-            <v>20.852941513061499</v>
-          </cell>
-          <cell r="C7">
-            <v>30.117647171020501</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="A8">
             <v>6</v>
           </cell>
-          <cell r="B8">
-            <v>21.8823528289794</v>
-          </cell>
-          <cell r="C8">
-            <v>27.647058486938398</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9">
             <v>7</v>
           </cell>
-          <cell r="B9">
-            <v>23.529411315917901</v>
-          </cell>
-          <cell r="C9">
-            <v>23.2941169738769</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10">
             <v>8</v>
           </cell>
-          <cell r="B10">
-            <v>30.323530197143501</v>
-          </cell>
-          <cell r="C10">
-            <v>23.5882358551025</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11">
             <v>9</v>
           </cell>
-          <cell r="B11">
-            <v>27.470588684081999</v>
-          </cell>
-          <cell r="C11">
-            <v>24.176469802856399</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12">
             <v>10</v>
           </cell>
-          <cell r="B12">
-            <v>30.823530197143501</v>
-          </cell>
-          <cell r="C12">
-            <v>23.764705657958899</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13">
             <v>11</v>
           </cell>
-          <cell r="B13">
-            <v>37.970588684082003</v>
-          </cell>
-          <cell r="C13">
-            <v>21.823530197143501</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="A14">
             <v>12</v>
           </cell>
-          <cell r="B14">
-            <v>36.058822631835902</v>
-          </cell>
-          <cell r="C14">
-            <v>24</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="A15">
             <v>13</v>
           </cell>
-          <cell r="B15">
-            <v>37.764705657958899</v>
-          </cell>
-          <cell r="C15">
-            <v>21.5</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="A16">
             <v>14</v>
           </cell>
-          <cell r="B16">
-            <v>36.529411315917898</v>
-          </cell>
-          <cell r="C16">
-            <v>24.5</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="A17">
             <v>15</v>
           </cell>
-          <cell r="B17">
-            <v>38.911766052246001</v>
-          </cell>
-          <cell r="C17">
-            <v>24</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="A18">
             <v>16</v>
           </cell>
-          <cell r="B18">
-            <v>38.029411315917898</v>
-          </cell>
-          <cell r="C18">
-            <v>25.323530197143501</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="A19">
             <v>17</v>
           </cell>
-          <cell r="B19">
-            <v>40</v>
-          </cell>
-          <cell r="C19">
-            <v>24.058824539184499</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20">
             <v>18</v>
           </cell>
-          <cell r="B20">
-            <v>38.970588684082003</v>
-          </cell>
-          <cell r="C20">
-            <v>26.264705657958899</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="A21">
             <v>19</v>
           </cell>
-          <cell r="B21">
-            <v>40.941177368163999</v>
-          </cell>
-          <cell r="C21">
-            <v>26.735294342041001</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="A22">
             <v>20</v>
           </cell>
-          <cell r="B22">
-            <v>41.970588684082003</v>
-          </cell>
-          <cell r="C22">
-            <v>24.735294342041001</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="A23">
             <v>21</v>
           </cell>
-          <cell r="B23">
-            <v>42.176471710205</v>
-          </cell>
-          <cell r="C23">
-            <v>25.264705657958899</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="A24">
             <v>22</v>
           </cell>
-          <cell r="B24">
-            <v>44.382354736328097</v>
-          </cell>
-          <cell r="C24">
-            <v>21.117647171020501</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="A25">
             <v>23</v>
           </cell>
-          <cell r="B25">
-            <v>40.294116973876903</v>
-          </cell>
-          <cell r="C25">
-            <v>19.0882358551025</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="A26">
             <v>24</v>
           </cell>
-          <cell r="B26">
-            <v>42.705883026122997</v>
-          </cell>
-          <cell r="C26">
-            <v>18.147058486938398</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="A27">
             <v>25</v>
           </cell>
-          <cell r="B27">
-            <v>44.323528289794901</v>
-          </cell>
-          <cell r="C27">
-            <v>19.647058486938398</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="A28">
             <v>26</v>
           </cell>
-          <cell r="B28">
-            <v>43.911766052246001</v>
-          </cell>
-          <cell r="C28">
-            <v>18.617647171020501</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="A29">
             <v>27</v>
           </cell>
-          <cell r="B29">
-            <v>45.794116973876903</v>
-          </cell>
-          <cell r="C29">
-            <v>19.058824539184499</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="A30">
             <v>28</v>
           </cell>
-          <cell r="B30">
-            <v>48.529411315917898</v>
-          </cell>
-          <cell r="C30">
-            <v>19.617647171020501</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="A31">
             <v>29</v>
           </cell>
-          <cell r="B31">
-            <v>45.058822631835902</v>
-          </cell>
-          <cell r="C31">
-            <v>17.911764144897401</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="A32">
             <v>30</v>
           </cell>
-          <cell r="B32">
-            <v>46.294116973876903</v>
-          </cell>
-          <cell r="C32">
-            <v>17.911764144897401</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="A33">
             <v>31</v>
           </cell>
-          <cell r="B33">
-            <v>46.352939605712798</v>
-          </cell>
-          <cell r="C33">
-            <v>17.352941513061499</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="A34">
             <v>32</v>
           </cell>
-          <cell r="B34">
-            <v>46.617649078369098</v>
-          </cell>
-          <cell r="C34">
-            <v>17.411764144897401</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="A35">
             <v>33</v>
           </cell>
-          <cell r="B35">
-            <v>46.323528289794901</v>
-          </cell>
-          <cell r="C35">
-            <v>18.617647171020501</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="A36">
             <v>34</v>
           </cell>
-          <cell r="B36">
-            <v>47</v>
-          </cell>
-          <cell r="C36">
-            <v>17.0882358551025</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="A37">
             <v>35</v>
           </cell>
-          <cell r="B37">
-            <v>44.029411315917898</v>
-          </cell>
-          <cell r="C37">
-            <v>17.617647171020501</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="A38">
             <v>36</v>
           </cell>
-          <cell r="B38">
-            <v>46.794116973876903</v>
-          </cell>
-          <cell r="C38">
-            <v>17.676469802856399</v>
-          </cell>
         </row>
         <row r="39">
           <cell r="A39">
             <v>37</v>
           </cell>
-          <cell r="B39">
-            <v>46.264705657958899</v>
-          </cell>
-          <cell r="C39">
-            <v>18.147058486938398</v>
-          </cell>
         </row>
         <row r="40">
           <cell r="A40">
             <v>38</v>
           </cell>
-          <cell r="B40">
-            <v>48.588233947753899</v>
-          </cell>
-          <cell r="C40">
-            <v>17.617647171020501</v>
-          </cell>
         </row>
         <row r="41">
           <cell r="A41">
             <v>39</v>
           </cell>
-          <cell r="B41">
-            <v>50.441177368163999</v>
-          </cell>
-          <cell r="C41">
-            <v>18.147058486938398</v>
-          </cell>
         </row>
         <row r="42">
           <cell r="A42">
             <v>40</v>
           </cell>
-          <cell r="B42">
-            <v>48.764705657958899</v>
-          </cell>
-          <cell r="C42">
-            <v>18.323530197143501</v>
-          </cell>
         </row>
         <row r="43">
           <cell r="A43">
             <v>41</v>
           </cell>
-          <cell r="B43">
-            <v>49.205883026122997</v>
-          </cell>
-          <cell r="C43">
-            <v>19.323530197143501</v>
-          </cell>
         </row>
         <row r="44">
           <cell r="A44">
             <v>42</v>
           </cell>
-          <cell r="B44">
-            <v>46.352939605712798</v>
-          </cell>
-          <cell r="C44">
-            <v>19.647058486938398</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="A45">
             <v>43</v>
           </cell>
-          <cell r="B45">
-            <v>53.441177368163999</v>
-          </cell>
-          <cell r="C45">
-            <v>19.058824539184499</v>
-          </cell>
         </row>
         <row r="46">
           <cell r="A46">
             <v>44</v>
           </cell>
-          <cell r="B46">
-            <v>51.970588684082003</v>
-          </cell>
-          <cell r="C46">
-            <v>18.470588684081999</v>
-          </cell>
         </row>
         <row r="47">
           <cell r="A47">
             <v>45</v>
           </cell>
-          <cell r="B47">
-            <v>51.941177368163999</v>
-          </cell>
-          <cell r="C47">
-            <v>17.8823528289794</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="A48">
             <v>46</v>
           </cell>
-          <cell r="B48">
-            <v>50.764705657958899</v>
-          </cell>
-          <cell r="C48">
-            <v>17.5882358551025</v>
-          </cell>
         </row>
         <row r="49">
           <cell r="A49">
             <v>47</v>
           </cell>
-          <cell r="B49">
-            <v>51.705883026122997</v>
-          </cell>
-          <cell r="C49">
-            <v>18.823530197143501</v>
-          </cell>
         </row>
         <row r="50">
           <cell r="A50">
             <v>48</v>
           </cell>
-          <cell r="B50">
-            <v>52.764705657958899</v>
-          </cell>
-          <cell r="C50">
-            <v>17.852941513061499</v>
-          </cell>
         </row>
         <row r="51">
           <cell r="A51">
             <v>49</v>
           </cell>
-          <cell r="B51">
-            <v>50.911766052246001</v>
-          </cell>
-          <cell r="C51">
-            <v>19.117647171020501</v>
-          </cell>
         </row>
         <row r="52">
           <cell r="A52">
             <v>50</v>
           </cell>
-          <cell r="B52">
-            <v>52.411766052246001</v>
-          </cell>
-          <cell r="C52">
-            <v>18.411764144897401</v>
-          </cell>
         </row>
         <row r="53">
           <cell r="A53">
             <v>51</v>
           </cell>
-          <cell r="B53">
-            <v>51.941177368163999</v>
-          </cell>
-          <cell r="C53">
-            <v>17.676469802856399</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="A54">
             <v>52</v>
           </cell>
-          <cell r="B54">
-            <v>50.029411315917898</v>
-          </cell>
-          <cell r="C54">
-            <v>18.3823528289794</v>
-          </cell>
         </row>
         <row r="55">
           <cell r="A55">
             <v>53</v>
           </cell>
-          <cell r="B55">
-            <v>52.941177368163999</v>
-          </cell>
-          <cell r="C55">
-            <v>18.617647171020501</v>
-          </cell>
         </row>
         <row r="56">
           <cell r="A56">
             <v>54</v>
           </cell>
-          <cell r="B56">
-            <v>51.735294342041001</v>
-          </cell>
-          <cell r="C56">
-            <v>18.911764144897401</v>
-          </cell>
         </row>
         <row r="57">
           <cell r="A57">
             <v>55</v>
           </cell>
-          <cell r="B57">
-            <v>55.647060394287102</v>
-          </cell>
-          <cell r="C57">
-            <v>19.2941169738769</v>
-          </cell>
         </row>
         <row r="58">
           <cell r="A58">
             <v>56</v>
           </cell>
-          <cell r="B58">
-            <v>52.176471710205</v>
-          </cell>
-          <cell r="C58">
-            <v>18.676469802856399</v>
-          </cell>
         </row>
         <row r="59">
           <cell r="A59">
             <v>57</v>
           </cell>
-          <cell r="B59">
-            <v>53.970588684082003</v>
-          </cell>
-          <cell r="C59">
-            <v>18.823530197143501</v>
-          </cell>
         </row>
         <row r="60">
           <cell r="A60">
             <v>58</v>
           </cell>
-          <cell r="B60">
-            <v>57.647060394287102</v>
-          </cell>
-          <cell r="C60">
-            <v>20.0882358551025</v>
-          </cell>
         </row>
         <row r="61">
           <cell r="A61">
             <v>59</v>
           </cell>
-          <cell r="B61">
-            <v>57.823528289794901</v>
-          </cell>
-          <cell r="C61">
-            <v>19.647058486938398</v>
-          </cell>
         </row>
         <row r="62">
           <cell r="A62">
             <v>60</v>
           </cell>
-          <cell r="B62">
-            <v>55.882354736328097</v>
-          </cell>
-          <cell r="C62">
-            <v>18.117647171020501</v>
-          </cell>
         </row>
         <row r="63">
           <cell r="A63">
             <v>61</v>
           </cell>
-          <cell r="B63">
-            <v>51.176471710205</v>
-          </cell>
-          <cell r="C63">
-            <v>19.823530197143501</v>
-          </cell>
         </row>
         <row r="64">
           <cell r="A64">
             <v>62</v>
           </cell>
-          <cell r="B64">
-            <v>55.117649078369098</v>
-          </cell>
-          <cell r="C64">
-            <v>20.617647171020501</v>
-          </cell>
         </row>
         <row r="65">
           <cell r="A65">
             <v>63</v>
           </cell>
-          <cell r="B65">
-            <v>55.205883026122997</v>
-          </cell>
-          <cell r="C65">
-            <v>20.852941513061499</v>
-          </cell>
         </row>
         <row r="66">
           <cell r="A66">
             <v>64</v>
           </cell>
-          <cell r="B66">
-            <v>54.117649078369098</v>
-          </cell>
-          <cell r="C66">
-            <v>20.617647171020501</v>
-          </cell>
         </row>
         <row r="67">
           <cell r="A67">
             <v>65</v>
           </cell>
-          <cell r="B67">
-            <v>58.117649078369098</v>
-          </cell>
-          <cell r="C67">
-            <v>19.823530197143501</v>
-          </cell>
         </row>
         <row r="68">
           <cell r="A68">
             <v>66</v>
           </cell>
-          <cell r="B68">
-            <v>56.882354736328097</v>
-          </cell>
-          <cell r="C68">
-            <v>20.470588684081999</v>
-          </cell>
         </row>
         <row r="69">
           <cell r="A69">
             <v>67</v>
           </cell>
-          <cell r="B69">
-            <v>55.705883026122997</v>
-          </cell>
-          <cell r="C69">
-            <v>19.5882358551025</v>
-          </cell>
         </row>
         <row r="70">
           <cell r="A70">
             <v>68</v>
           </cell>
-          <cell r="B70">
-            <v>55.911766052246001</v>
-          </cell>
-          <cell r="C70">
-            <v>20.323530197143501</v>
-          </cell>
         </row>
         <row r="71">
           <cell r="A71">
             <v>69</v>
           </cell>
-          <cell r="B71">
-            <v>59.058822631835902</v>
-          </cell>
-          <cell r="C71">
-            <v>20.117647171020501</v>
-          </cell>
         </row>
         <row r="72">
           <cell r="A72">
             <v>70</v>
           </cell>
-          <cell r="B72">
-            <v>60.823528289794901</v>
-          </cell>
-          <cell r="C72">
-            <v>19.705883026123001</v>
-          </cell>
         </row>
         <row r="73">
           <cell r="A73">
             <v>71</v>
           </cell>
-          <cell r="B73">
-            <v>60.882354736328097</v>
-          </cell>
-          <cell r="C73">
-            <v>20.529411315917901</v>
-          </cell>
         </row>
         <row r="74">
           <cell r="A74">
             <v>72</v>
           </cell>
-          <cell r="B74">
-            <v>58.147060394287102</v>
-          </cell>
-          <cell r="C74">
-            <v>20.176469802856399</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="A75">
             <v>73</v>
           </cell>
-          <cell r="B75">
-            <v>58.823528289794901</v>
-          </cell>
-          <cell r="C75">
-            <v>21.323530197143501</v>
-          </cell>
         </row>
         <row r="76">
           <cell r="A76">
             <v>74</v>
           </cell>
-          <cell r="B76">
-            <v>62.029411315917898</v>
-          </cell>
-          <cell r="C76">
-            <v>19.8823528289794</v>
-          </cell>
         </row>
         <row r="77">
           <cell r="A77">
             <v>75</v>
           </cell>
-          <cell r="B77">
-            <v>60.264705657958899</v>
-          </cell>
-          <cell r="C77">
-            <v>20.5882358551025</v>
-          </cell>
         </row>
         <row r="78">
           <cell r="A78">
             <v>76</v>
           </cell>
-          <cell r="B78">
-            <v>58.852939605712798</v>
-          </cell>
-          <cell r="C78">
-            <v>20.529411315917901</v>
-          </cell>
         </row>
         <row r="79">
           <cell r="A79">
             <v>77</v>
           </cell>
-          <cell r="B79">
-            <v>59.617649078369098</v>
-          </cell>
-          <cell r="C79">
-            <v>20.3823528289794</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="A80">
             <v>78</v>
           </cell>
-          <cell r="B80">
-            <v>62.058822631835902</v>
-          </cell>
-          <cell r="C80">
-            <v>21.2941169738769</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="A81">
             <v>79</v>
           </cell>
-          <cell r="B81">
-            <v>60.558822631835902</v>
-          </cell>
-          <cell r="C81">
-            <v>22.617647171020501</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="A82">
             <v>80</v>
           </cell>
-          <cell r="B82">
-            <v>61.529411315917898</v>
-          </cell>
-          <cell r="C82">
-            <v>21.3823528289794</v>
-          </cell>
         </row>
         <row r="83">
           <cell r="A83">
             <v>81</v>
           </cell>
-          <cell r="B83">
-            <v>62.029411315917898</v>
-          </cell>
-          <cell r="C83">
-            <v>21.323530197143501</v>
-          </cell>
         </row>
         <row r="84">
           <cell r="A84">
             <v>82</v>
           </cell>
-          <cell r="B84">
-            <v>60</v>
-          </cell>
-          <cell r="C84">
-            <v>24.558824539184499</v>
-          </cell>
         </row>
         <row r="85">
           <cell r="A85">
             <v>83</v>
           </cell>
-          <cell r="B85">
-            <v>63.764705657958899</v>
-          </cell>
-          <cell r="C85">
-            <v>20.558824539184499</v>
-          </cell>
         </row>
         <row r="86">
           <cell r="A86">
             <v>84</v>
           </cell>
-          <cell r="B86">
-            <v>64.205879211425696</v>
-          </cell>
-          <cell r="C86">
-            <v>22.764705657958899</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="A87">
             <v>85</v>
           </cell>
-          <cell r="B87">
-            <v>63.941177368163999</v>
-          </cell>
-          <cell r="C87">
-            <v>20.352941513061499</v>
-          </cell>
         </row>
         <row r="88">
           <cell r="A88">
             <v>86</v>
           </cell>
-          <cell r="B88">
-            <v>64.882354736328097</v>
-          </cell>
-          <cell r="C88">
-            <v>20.323530197143501</v>
-          </cell>
         </row>
         <row r="89">
           <cell r="A89">
             <v>87</v>
           </cell>
-          <cell r="B89">
-            <v>60.323528289794901</v>
-          </cell>
-          <cell r="C89">
-            <v>23.0882358551025</v>
-          </cell>
         </row>
         <row r="90">
           <cell r="A90">
             <v>88</v>
           </cell>
-          <cell r="B90">
-            <v>64.176467895507798</v>
-          </cell>
-          <cell r="C90">
-            <v>22.558824539184499</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="A91">
             <v>89</v>
           </cell>
-          <cell r="B91">
-            <v>62.794116973876903</v>
-          </cell>
-          <cell r="C91">
-            <v>23.735294342041001</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="A92">
             <v>90</v>
           </cell>
-          <cell r="B92">
-            <v>65.647056579589801</v>
-          </cell>
-          <cell r="C92">
-            <v>21.5882358551025</v>
-          </cell>
         </row>
         <row r="93">
           <cell r="A93">
             <v>91</v>
           </cell>
-          <cell r="B93">
-            <v>63.794116973876903</v>
-          </cell>
-          <cell r="C93">
-            <v>23.5</v>
-          </cell>
         </row>
         <row r="94">
           <cell r="A94">
             <v>92</v>
           </cell>
-          <cell r="B94">
-            <v>67.147056579589801</v>
-          </cell>
-          <cell r="C94">
-            <v>22.8823528289794</v>
-          </cell>
         </row>
         <row r="95">
           <cell r="A95">
             <v>93</v>
           </cell>
-          <cell r="B95">
-            <v>65.970588684082003</v>
-          </cell>
-          <cell r="C95">
-            <v>22</v>
-          </cell>
         </row>
         <row r="96">
           <cell r="A96">
             <v>94</v>
           </cell>
-          <cell r="B96">
-            <v>63.529411315917898</v>
-          </cell>
-          <cell r="C96">
-            <v>23.058824539184499</v>
-          </cell>
         </row>
         <row r="97">
           <cell r="A97">
             <v>95</v>
           </cell>
-          <cell r="B97">
-            <v>66.411766052246094</v>
-          </cell>
-          <cell r="C97">
-            <v>23.323530197143501</v>
-          </cell>
         </row>
         <row r="98">
           <cell r="A98">
             <v>96</v>
           </cell>
-          <cell r="B98">
-            <v>68.5</v>
-          </cell>
-          <cell r="C98">
-            <v>23.529411315917901</v>
-          </cell>
         </row>
         <row r="99">
           <cell r="A99">
             <v>97</v>
           </cell>
-          <cell r="B99">
-            <v>65.852943420410099</v>
-          </cell>
-          <cell r="C99">
-            <v>21.911764144897401</v>
-          </cell>
         </row>
         <row r="100">
           <cell r="A100">
             <v>98</v>
           </cell>
-          <cell r="B100">
-            <v>65.705879211425696</v>
-          </cell>
-          <cell r="C100">
-            <v>21.235294342041001</v>
-          </cell>
         </row>
         <row r="101">
           <cell r="A101">
             <v>99</v>
-          </cell>
-          <cell r="B101">
-            <v>66.941177368164006</v>
-          </cell>
-          <cell r="C101">
-            <v>20.823530197143501</v>
           </cell>
         </row>
       </sheetData>
@@ -6260,1350 +4862,510 @@
           <cell r="B1" t="str">
             <v>train_acc</v>
           </cell>
-          <cell r="C1" t="str">
-            <v>val_acc</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="B2">
             <v>24.341463088989201</v>
           </cell>
-          <cell r="C2">
-            <v>23.845237731933501</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>25.085365295410099</v>
           </cell>
-          <cell r="C3">
-            <v>24.059524536132798</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4">
             <v>26.5609741210937</v>
           </cell>
-          <cell r="C4">
-            <v>24.726190567016602</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5">
             <v>29.9146327972412</v>
           </cell>
-          <cell r="C5">
-            <v>25.7023811340332</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6">
             <v>33.573169708251903</v>
           </cell>
-          <cell r="C6">
-            <v>23.059524536132798</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>36.182926177978501</v>
           </cell>
-          <cell r="C7">
-            <v>23.261905670166001</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>37.487804412841797</v>
           </cell>
-          <cell r="C8">
-            <v>22.7857151031494</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="B9">
             <v>37.390243530273402</v>
           </cell>
-          <cell r="C9">
-            <v>22.892858505248999</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>41.158535003662102</v>
           </cell>
-          <cell r="C10">
-            <v>22.964286804199201</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11">
             <v>41.719509124755803</v>
           </cell>
-          <cell r="C11">
-            <v>23.321428298950099</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="B12">
             <v>41.304878234863203</v>
           </cell>
-          <cell r="C12">
-            <v>23.214286804199201</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="B13">
             <v>42.073169708251903</v>
           </cell>
-          <cell r="C13">
-            <v>23.595237731933501</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="B14">
             <v>44.280487060546797</v>
           </cell>
-          <cell r="C14">
-            <v>23.5</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="B15">
             <v>44.280487060546797</v>
           </cell>
-          <cell r="C15">
-            <v>24.5</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="B16">
             <v>45.756095886230398</v>
           </cell>
-          <cell r="C16">
-            <v>24.190477371215799</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="B17">
             <v>46.158535003662102</v>
           </cell>
-          <cell r="C17">
-            <v>24.976190567016602</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="B18">
             <v>47.012191772460902</v>
           </cell>
-          <cell r="C18">
-            <v>27.1190490722656</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="B19">
             <v>47.926826477050703</v>
           </cell>
-          <cell r="C19">
-            <v>26.392858505248999</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="B20">
             <v>48.487804412841797</v>
           </cell>
-          <cell r="C20">
-            <v>28.25</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="B21">
             <v>50.4146308898925</v>
           </cell>
-          <cell r="C21">
-            <v>28.226190567016602</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="B22">
             <v>52.256095886230398</v>
           </cell>
-          <cell r="C22">
-            <v>28.166667938232401</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23">
             <v>52.499996185302699</v>
           </cell>
-          <cell r="C23">
-            <v>29.964286804199201</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="B24">
             <v>53.926826477050703</v>
           </cell>
-          <cell r="C24">
-            <v>29.773809432983398</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25">
             <v>53.9146308898925</v>
           </cell>
-          <cell r="C25">
-            <v>29.0833339691162</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
             <v>55.012191772460902</v>
           </cell>
-          <cell r="C26">
-            <v>30.0833339691162</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="B27">
             <v>55.524387359619098</v>
           </cell>
-          <cell r="C27">
-            <v>30.107143402099599</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="B28">
             <v>57.085365295410099</v>
           </cell>
-          <cell r="C28">
-            <v>30.988096237182599</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="B29">
             <v>56.804874420166001</v>
           </cell>
-          <cell r="C29">
-            <v>30</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="B30">
             <v>57.6219482421875</v>
           </cell>
-          <cell r="C30">
-            <v>31.071428298950099</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="B31">
             <v>57.829265594482401</v>
           </cell>
-          <cell r="C31">
-            <v>31.261905670166001</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="B32">
             <v>59.378047943115199</v>
           </cell>
-          <cell r="C32">
-            <v>31.773809432983398</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="B33">
             <v>59.292678833007798</v>
           </cell>
-          <cell r="C33">
-            <v>30.607143402099599</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="B34">
             <v>60.1219482421875</v>
           </cell>
-          <cell r="C34">
-            <v>31.380952835083001</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="B35">
             <v>59.939022064208899</v>
           </cell>
-          <cell r="C35">
-            <v>31.678571701049801</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="B36">
             <v>62.073169708251903</v>
           </cell>
-          <cell r="C36">
-            <v>30.892858505248999</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="B37">
             <v>62.865852355957003</v>
           </cell>
-          <cell r="C37">
-            <v>31.2857151031494</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="B38">
             <v>63.012191772460902</v>
           </cell>
-          <cell r="C38">
-            <v>32.3214302062988</v>
-          </cell>
         </row>
         <row r="39">
           <cell r="B39">
             <v>64.158531188964801</v>
           </cell>
-          <cell r="C39">
-            <v>31.726190567016602</v>
-          </cell>
         </row>
         <row r="40">
           <cell r="B40">
             <v>65.390243530273395</v>
           </cell>
-          <cell r="C40">
-            <v>31.5357151031494</v>
-          </cell>
         </row>
         <row r="41">
           <cell r="B41">
             <v>66.1219482421875</v>
           </cell>
-          <cell r="C41">
-            <v>31.690477371215799</v>
-          </cell>
         </row>
         <row r="42">
           <cell r="B42">
             <v>66.463409423828097</v>
           </cell>
-          <cell r="C42">
-            <v>31.761905670166001</v>
-          </cell>
         </row>
         <row r="43">
           <cell r="B43">
             <v>67.048774719238196</v>
           </cell>
-          <cell r="C43">
-            <v>32.464286804199197</v>
-          </cell>
         </row>
         <row r="44">
           <cell r="B44">
             <v>66.829269409179602</v>
           </cell>
-          <cell r="C44">
-            <v>31.416667938232401</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>67.512191772460895</v>
           </cell>
-          <cell r="C45">
-            <v>33.238094329833899</v>
-          </cell>
         </row>
         <row r="46">
           <cell r="B46">
             <v>68.634140014648395</v>
           </cell>
-          <cell r="C46">
-            <v>32.595237731933501</v>
-          </cell>
         </row>
         <row r="47">
           <cell r="B47">
             <v>68.951217651367102</v>
           </cell>
-          <cell r="C47">
-            <v>33.035713195800703</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="B48">
             <v>70.158531188964801</v>
           </cell>
-          <cell r="C48">
-            <v>31.964286804199201</v>
-          </cell>
         </row>
         <row r="49">
           <cell r="B49">
             <v>70.353652954101506</v>
           </cell>
-          <cell r="C49">
-            <v>32.607143402099602</v>
-          </cell>
         </row>
         <row r="50">
           <cell r="B50">
             <v>70.609756469726506</v>
           </cell>
-          <cell r="C50">
-            <v>31.880952835083001</v>
-          </cell>
         </row>
         <row r="51">
           <cell r="B51">
             <v>71.036582946777301</v>
           </cell>
-          <cell r="C51">
-            <v>31.797618865966701</v>
-          </cell>
         </row>
         <row r="52">
           <cell r="B52">
             <v>71.426826477050696</v>
           </cell>
-          <cell r="C52">
-            <v>32.773811340332003</v>
-          </cell>
         </row>
         <row r="53">
           <cell r="B53">
             <v>71.243896484375</v>
           </cell>
-          <cell r="C53">
-            <v>32.345237731933501</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="B54">
             <v>72.536582946777301</v>
           </cell>
-          <cell r="C54">
-            <v>33.642856597900298</v>
-          </cell>
         </row>
         <row r="55">
           <cell r="B55">
             <v>72.817070007324205</v>
           </cell>
-          <cell r="C55">
-            <v>32.023811340332003</v>
-          </cell>
         </row>
         <row r="56">
           <cell r="B56">
             <v>73.195121765136705</v>
           </cell>
-          <cell r="C56">
-            <v>30.809524536132798</v>
-          </cell>
         </row>
         <row r="57">
           <cell r="B57">
             <v>73.1219482421875</v>
           </cell>
-          <cell r="C57">
-            <v>31.654762268066399</v>
-          </cell>
         </row>
         <row r="58">
           <cell r="B58">
             <v>73.719512939453097</v>
           </cell>
-          <cell r="C58">
-            <v>32.869049072265597</v>
-          </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>73.134140014648395</v>
           </cell>
-          <cell r="C59">
-            <v>30.7857151031494</v>
-          </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>74.536582946777301</v>
           </cell>
-          <cell r="C60">
-            <v>31.964286804199201</v>
-          </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>74.951217651367102</v>
           </cell>
-          <cell r="C61">
-            <v>32.190475463867102</v>
-          </cell>
         </row>
         <row r="62">
           <cell r="B62">
             <v>74.804878234863196</v>
           </cell>
-          <cell r="C62">
-            <v>31.142858505248999</v>
-          </cell>
         </row>
         <row r="63">
           <cell r="B63">
             <v>75.329261779785099</v>
           </cell>
-          <cell r="C63">
-            <v>31.6190490722656</v>
-          </cell>
         </row>
         <row r="64">
           <cell r="B64">
             <v>73.804878234863196</v>
           </cell>
-          <cell r="C64">
-            <v>32.166667938232401</v>
-          </cell>
         </row>
         <row r="65">
           <cell r="B65">
             <v>76.390243530273395</v>
           </cell>
-          <cell r="C65">
-            <v>34.095237731933501</v>
-          </cell>
         </row>
         <row r="66">
           <cell r="B66">
             <v>74.353652954101506</v>
           </cell>
-          <cell r="C66">
-            <v>32.464286804199197</v>
-          </cell>
         </row>
         <row r="67">
           <cell r="B67">
             <v>75.707313537597599</v>
           </cell>
-          <cell r="C67">
-            <v>31.678571701049801</v>
-          </cell>
         </row>
         <row r="68">
           <cell r="B68">
             <v>75.695121765136705</v>
           </cell>
-          <cell r="C68">
-            <v>32.404762268066399</v>
-          </cell>
         </row>
         <row r="69">
           <cell r="B69">
             <v>77.439018249511705</v>
           </cell>
-          <cell r="C69">
-            <v>31.690477371215799</v>
-          </cell>
         </row>
         <row r="70">
           <cell r="B70">
             <v>76.219512939453097</v>
           </cell>
-          <cell r="C70">
-            <v>32.392856597900298</v>
-          </cell>
         </row>
         <row r="71">
           <cell r="B71">
             <v>77</v>
           </cell>
-          <cell r="C71">
-            <v>32.761905670166001</v>
-          </cell>
         </row>
         <row r="72">
           <cell r="B72">
             <v>76.804878234863196</v>
           </cell>
-          <cell r="C72">
-            <v>31.1190490722656</v>
-          </cell>
         </row>
         <row r="73">
           <cell r="B73">
             <v>76.463409423828097</v>
           </cell>
-          <cell r="C73">
-            <v>32.880954742431598</v>
-          </cell>
         </row>
         <row r="74">
           <cell r="B74">
             <v>76.097557067871094</v>
           </cell>
-          <cell r="C74">
-            <v>31.178571701049801</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="B75">
             <v>77.073165893554602</v>
           </cell>
-          <cell r="C75">
-            <v>33.059524536132798</v>
-          </cell>
         </row>
         <row r="76">
           <cell r="B76">
             <v>76.743896484375</v>
           </cell>
-          <cell r="C76">
-            <v>31.404762268066399</v>
-          </cell>
         </row>
         <row r="77">
           <cell r="B77">
             <v>77.426826477050696</v>
           </cell>
-          <cell r="C77">
-            <v>32.726192474365199</v>
-          </cell>
         </row>
         <row r="78">
           <cell r="B78">
             <v>78.743896484375</v>
           </cell>
-          <cell r="C78">
-            <v>31.023809432983398</v>
-          </cell>
         </row>
         <row r="79">
           <cell r="B79">
             <v>78.451217651367102</v>
           </cell>
-          <cell r="C79">
-            <v>32.023811340332003</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="B80">
             <v>76.182922363281193</v>
           </cell>
-          <cell r="C80">
-            <v>31.976190567016602</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="B81">
             <v>77.548774719238196</v>
           </cell>
-          <cell r="C81">
-            <v>33.011905670166001</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="B82">
             <v>77.256095886230398</v>
           </cell>
-          <cell r="C82">
-            <v>32.916667938232401</v>
-          </cell>
         </row>
         <row r="83">
           <cell r="B83">
             <v>78.012191772460895</v>
           </cell>
-          <cell r="C83">
-            <v>33.0833320617675</v>
-          </cell>
         </row>
         <row r="84">
           <cell r="B84">
             <v>77.548774719238196</v>
           </cell>
-          <cell r="C84">
-            <v>30.559524536132798</v>
-          </cell>
         </row>
         <row r="85">
           <cell r="B85">
             <v>77.5</v>
           </cell>
-          <cell r="C85">
-            <v>30.940477371215799</v>
-          </cell>
         </row>
         <row r="86">
           <cell r="B86">
             <v>78.731704711914006</v>
           </cell>
-          <cell r="C86">
-            <v>30.845237731933501</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="B87">
             <v>78.341461181640597</v>
           </cell>
-          <cell r="C87">
-            <v>34.297618865966797</v>
-          </cell>
         </row>
         <row r="88">
           <cell r="B88">
             <v>77.975608825683594</v>
           </cell>
-          <cell r="C88">
-            <v>31.142858505248999</v>
-          </cell>
         </row>
         <row r="89">
           <cell r="B89">
             <v>77.658531188964801</v>
           </cell>
-          <cell r="C89">
-            <v>30.880952835083001</v>
-          </cell>
         </row>
         <row r="90">
           <cell r="B90">
             <v>77.731704711914006</v>
           </cell>
-          <cell r="C90">
-            <v>33</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="B91">
             <v>78.756095886230398</v>
           </cell>
-          <cell r="C91">
-            <v>32.214286804199197</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="B92">
             <v>78.231704711914006</v>
           </cell>
-          <cell r="C92">
-            <v>33.023811340332003</v>
-          </cell>
         </row>
         <row r="93">
           <cell r="B93">
             <v>79.195121765136705</v>
           </cell>
-          <cell r="C93">
-            <v>31.071428298950099</v>
-          </cell>
         </row>
         <row r="94">
           <cell r="B94">
             <v>78.060974121093693</v>
           </cell>
-          <cell r="C94">
-            <v>31.595237731933501</v>
-          </cell>
         </row>
         <row r="95">
           <cell r="B95">
             <v>79.243896484375</v>
           </cell>
-          <cell r="C95">
-            <v>31.523809432983398</v>
-          </cell>
         </row>
         <row r="96">
           <cell r="B96">
             <v>77.219512939453097</v>
           </cell>
-          <cell r="C96">
-            <v>31.273809432983398</v>
-          </cell>
         </row>
         <row r="97">
           <cell r="B97">
             <v>79.865852355957003</v>
           </cell>
-          <cell r="C97">
-            <v>31.964286804199201</v>
-          </cell>
         </row>
         <row r="98">
           <cell r="B98">
             <v>79.756095886230398</v>
           </cell>
-          <cell r="C98">
-            <v>32.059524536132798</v>
-          </cell>
         </row>
         <row r="99">
           <cell r="B99">
             <v>79.634140014648395</v>
           </cell>
-          <cell r="C99">
-            <v>31.761905670166001</v>
-          </cell>
         </row>
         <row r="100">
           <cell r="B100">
             <v>78.768287658691406</v>
           </cell>
-          <cell r="C100">
-            <v>31.273809432983398</v>
-          </cell>
         </row>
         <row r="101">
           <cell r="B101">
             <v>79.036582946777301</v>
           </cell>
-          <cell r="C101">
-            <v>32.416667938232401</v>
-          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1">
-            <v>22.987804412841701</v>
-          </cell>
-          <cell r="C1">
-            <v>25.297618865966701</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>22.512193679809499</v>
-          </cell>
-          <cell r="C2">
-            <v>24.488096237182599</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>23.609754562377901</v>
-          </cell>
-          <cell r="C3">
-            <v>21.3333339691162</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>29.182926177978501</v>
-          </cell>
-          <cell r="C4">
-            <v>21.892856597900298</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>33.8536567687988</v>
-          </cell>
-          <cell r="C5">
-            <v>22.3333339691162</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>35.573169708251903</v>
-          </cell>
-          <cell r="C6">
-            <v>23.047618865966701</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>37.439022064208899</v>
-          </cell>
-          <cell r="C7">
-            <v>22.309524536132798</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>37.548778533935497</v>
-          </cell>
-          <cell r="C8">
-            <v>22.380952835083001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>41.426826477050703</v>
-          </cell>
-          <cell r="C9">
-            <v>22.654762268066399</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>41.475608825683501</v>
-          </cell>
-          <cell r="C10">
-            <v>23.273809432983398</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>40.865852355957003</v>
-          </cell>
-          <cell r="C11">
-            <v>23.226190567016602</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>42.439022064208899</v>
-          </cell>
-          <cell r="C12">
-            <v>24.130952835083001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>45.4146308898925</v>
-          </cell>
-          <cell r="C13">
-            <v>23.845237731933501</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>44.658535003662102</v>
-          </cell>
-          <cell r="C14">
-            <v>25.0833339691162</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>47.0609741210937</v>
-          </cell>
-          <cell r="C15">
-            <v>24.7023811340332</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>46.439022064208899</v>
-          </cell>
-          <cell r="C16">
-            <v>25.226190567016602</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>46.841461181640597</v>
-          </cell>
-          <cell r="C17">
-            <v>27.4523811340332</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>47.5609741210937</v>
-          </cell>
-          <cell r="C18">
-            <v>26.2023811340332</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>47.768291473388601</v>
-          </cell>
-          <cell r="C19">
-            <v>28.416667938232401</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>49.8536567687988</v>
-          </cell>
-          <cell r="C20">
-            <v>28.511905670166001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>51.670730590820298</v>
-          </cell>
-          <cell r="C21">
-            <v>28.25</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>53.256095886230398</v>
-          </cell>
-          <cell r="C22">
-            <v>29.2857151031494</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>53.219509124755803</v>
-          </cell>
-          <cell r="C23">
-            <v>29.2857151031494</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>53.719509124755803</v>
-          </cell>
-          <cell r="C24">
-            <v>29.428571701049801</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>55.243900299072202</v>
-          </cell>
-          <cell r="C25">
-            <v>30.059524536132798</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>54.487804412841797</v>
-          </cell>
-          <cell r="C26">
-            <v>29.6190490722656</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>56.304874420166001</v>
-          </cell>
-          <cell r="C27">
-            <v>30.559524536132798</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>57.268291473388601</v>
-          </cell>
-          <cell r="C28">
-            <v>30.011905670166001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>57.682926177978501</v>
-          </cell>
-          <cell r="C29">
-            <v>31.273809432983398</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>58.792678833007798</v>
-          </cell>
-          <cell r="C30">
-            <v>31.142858505248999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>59.8536567687988</v>
-          </cell>
-          <cell r="C31">
-            <v>31.5357151031494</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>59.768291473388601</v>
-          </cell>
-          <cell r="C32">
-            <v>30.559524536132798</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>60.804874420166001</v>
-          </cell>
-          <cell r="C33">
-            <v>31.071428298950099</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>61.365852355957003</v>
-          </cell>
-          <cell r="C34">
-            <v>31.345237731933501</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>61.292678833007798</v>
-          </cell>
-          <cell r="C35">
-            <v>31.238096237182599</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>62.463413238525298</v>
-          </cell>
-          <cell r="C36">
-            <v>31.297618865966701</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>63.682926177978501</v>
-          </cell>
-          <cell r="C37">
-            <v>32.559524536132798</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>63.597557067871001</v>
-          </cell>
-          <cell r="C38">
-            <v>32.107143402099602</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>65.963409423828097</v>
-          </cell>
-          <cell r="C39">
-            <v>31.392858505248999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>65.134147644042898</v>
-          </cell>
-          <cell r="C40">
-            <v>32.238094329833899</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>65.5</v>
-          </cell>
-          <cell r="C41">
-            <v>31.380952835083001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>67.207313537597599</v>
-          </cell>
-          <cell r="C42">
-            <v>32.404762268066399</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>66.780487060546804</v>
-          </cell>
-          <cell r="C43">
-            <v>31.142858505248999</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>67.829269409179602</v>
-          </cell>
-          <cell r="C44">
-            <v>32.8333320617675</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>68.170730590820298</v>
-          </cell>
-          <cell r="C45">
-            <v>33.047618865966797</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>69.926826477050696</v>
-          </cell>
-          <cell r="C46">
-            <v>32.761905670166001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>68.634140014648395</v>
-          </cell>
-          <cell r="C47">
-            <v>32.428573608398402</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>69.878044128417898</v>
-          </cell>
-          <cell r="C48">
-            <v>32.964286804199197</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>70.573165893554602</v>
-          </cell>
-          <cell r="C49">
-            <v>32.607143402099602</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>70.634140014648395</v>
-          </cell>
-          <cell r="C50">
-            <v>31.047618865966701</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>71.731704711914006</v>
-          </cell>
-          <cell r="C51">
-            <v>33.142856597900298</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>71.207313537597599</v>
-          </cell>
-          <cell r="C52">
-            <v>32.297618865966797</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>71.890243530273395</v>
-          </cell>
-          <cell r="C53">
-            <v>32.940475463867102</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>72.451217651367102</v>
-          </cell>
-          <cell r="C54">
-            <v>31.976190567016602</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>73.317070007324205</v>
-          </cell>
-          <cell r="C55">
-            <v>31.226190567016602</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>72.792678833007798</v>
-          </cell>
-          <cell r="C56">
-            <v>31.976190567016602</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>73.804878234863196</v>
-          </cell>
-          <cell r="C57">
-            <v>33.440475463867102</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>74.036582946777301</v>
-          </cell>
-          <cell r="C58">
-            <v>31.380952835083001</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>74.768287658691406</v>
-          </cell>
-          <cell r="C59">
-            <v>30.75</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>74.158531188964801</v>
-          </cell>
-          <cell r="C60">
-            <v>31.523809432983398</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>74.475608825683594</v>
-          </cell>
-          <cell r="C61">
-            <v>30.916667938232401</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>74.195121765136705</v>
-          </cell>
-          <cell r="C62">
-            <v>32.535713195800703</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>75.6219482421875</v>
-          </cell>
-          <cell r="C63">
-            <v>32.654762268066399</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>75.365852355957003</v>
-          </cell>
-          <cell r="C64">
-            <v>33.511905670166001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>75.329261779785099</v>
-          </cell>
-          <cell r="C65">
-            <v>33.297618865966797</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>75.219512939453097</v>
-          </cell>
-          <cell r="C66">
-            <v>31.857143402099599</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>75.914634704589801</v>
-          </cell>
-          <cell r="C67">
-            <v>31.595237731933501</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11372,8 +9134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2C631-EEE2-954C-A945-E016E344ED4E}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E101"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13104,8 +10866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61228A74-23CC-544B-9D91-4320BBF14547}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="170" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/batch-size.xlsx
+++ b/output/batch-size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47275A55-F0AA-F24A-9848-55BF4975BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307136B-5CC8-6545-B303-24060BD695FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35100" yWindow="500" windowWidth="29840" windowHeight="18400" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
+    <workbookView xWindow="-34700" yWindow="1880" windowWidth="24100" windowHeight="19680" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4348,13 +4348,7 @@
       <sheetName val="Plot"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>25.411764099999999</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2">
@@ -4857,513 +4851,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>train_acc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>24.341463088989201</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>25.085365295410099</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>26.5609741210937</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>29.9146327972412</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>33.573169708251903</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>36.182926177978501</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>37.487804412841797</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>37.390243530273402</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>41.158535003662102</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>41.719509124755803</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>41.304878234863203</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>42.073169708251903</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>44.280487060546797</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>44.280487060546797</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>45.756095886230398</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>46.158535003662102</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>47.012191772460902</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>47.926826477050703</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>48.487804412841797</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>50.4146308898925</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>52.256095886230398</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>52.499996185302699</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>53.926826477050703</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>53.9146308898925</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>55.012191772460902</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>55.524387359619098</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>57.085365295410099</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>56.804874420166001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>57.6219482421875</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>57.829265594482401</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>59.378047943115199</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>59.292678833007798</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>60.1219482421875</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>59.939022064208899</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>62.073169708251903</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>62.865852355957003</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>63.012191772460902</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>64.158531188964801</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>65.390243530273395</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>66.1219482421875</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>66.463409423828097</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>67.048774719238196</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>66.829269409179602</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>67.512191772460895</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>68.634140014648395</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>68.951217651367102</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>70.158531188964801</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>70.353652954101506</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>70.609756469726506</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>71.036582946777301</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>71.426826477050696</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>71.243896484375</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>72.536582946777301</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>72.817070007324205</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>73.195121765136705</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>73.1219482421875</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>73.719512939453097</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>73.134140014648395</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>74.536582946777301</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>74.951217651367102</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>74.804878234863196</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>75.329261779785099</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>73.804878234863196</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>76.390243530273395</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>74.353652954101506</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>75.707313537597599</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>75.695121765136705</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>77.439018249511705</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>76.219512939453097</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>76.804878234863196</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>76.463409423828097</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>76.097557067871094</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>77.073165893554602</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>76.743896484375</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>77.426826477050696</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>78.743896484375</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>78.451217651367102</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>76.182922363281193</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>77.548774719238196</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>77.256095886230398</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>78.012191772460895</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>77.548774719238196</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>77.5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>78.731704711914006</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>78.341461181640597</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>77.975608825683594</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>77.658531188964801</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>77.731704711914006</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>78.756095886230398</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>78.231704711914006</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>79.195121765136705</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>78.060974121093693</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>79.243896484375</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>77.219512939453097</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>79.865852355957003</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>79.756095886230398</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>79.634140014648395</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>78.768287658691406</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>79.036582946777301</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
@@ -10866,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61228A74-23CC-544B-9D91-4320BBF14547}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="170" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/batch-size.xlsx
+++ b/output/batch-size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307136B-5CC8-6545-B303-24060BD695FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1054960-9E33-934F-B791-8BD37638E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34700" yWindow="1880" windowWidth="24100" windowHeight="19680" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24100" windowHeight="14480" activeTab="3" xr2:uid="{1B84941B-FC23-E64E-96BE-40D480F38D91}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="4" r:id="rId1"/>
@@ -10354,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61228A74-23CC-544B-9D91-4320BBF14547}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
